--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d570515-Reviews-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Northridge.h1261951.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1565 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r579175034-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>570515</t>
+  </si>
+  <si>
+    <t>579175034</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>It felt like an extended stay</t>
+  </si>
+  <si>
+    <t>The location is OK but that's where the good news ends. Staff are harassed, there are "long term residents", building smells of smoke and there are cigarette butts dropped around the communal areas in spite of the numerous forms guests have to sign promising not to smoke. The hallways smell, there are places to put trash  but it appears that most guest prefer to dump their rubbish outside their doors in the hope fairies take it away. My room was barricaded by two bell carts with empty beer bottles on them when I checked in. Housekeeping had done their best with my room. I was very glad to check out from here. The price I paid really didn't reflect what I got.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>The location is OK but that's where the good news ends. Staff are harassed, there are "long term residents", building smells of smoke and there are cigarette butts dropped around the communal areas in spite of the numerous forms guests have to sign promising not to smoke. The hallways smell, there are places to put trash  but it appears that most guest prefer to dump their rubbish outside their doors in the hope fairies take it away. My room was barricaded by two bell carts with empty beer bottles on them when I checked in. Housekeeping had done their best with my room. I was very glad to check out from here. The price I paid really didn't reflect what I got.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r575042695-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>575042695</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>Stayed here three nights.......Ok room......they do not clean the rooms every day.....all pots and pans are held at the front desk...........Walking distance to restuarents.......I paid $102 per night ,,,,,,,,,,,it not worth any more than that........breakfast is just coffee, breakfast bars, and muffis.......I went next door for a real breakfast............free parkingMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here three nights.......Ok room......they do not clean the rooms every day.....all pots and pans are held at the front desk...........Walking distance to restuarents.......I paid $102 per night ,,,,,,,,,,,it not worth any more than that........breakfast is just coffee, breakfast bars, and muffis.......I went next door for a real breakfast............free parkingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r572167806-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>572167806</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>1st and last</t>
+  </si>
+  <si>
+    <t>The whole purpose of an extended stay is so you fell like home. And if I'm paying 200 a night I want that. I didn't get that at all. The kitchen didn't have any accessories with it you have to go to the front desk to check it out. Issue with that is no one is ever at the front desk so you waiting around 10 minutes  before anybody comes.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>The whole purpose of an extended stay is so you fell like home. And if I'm paying 200 a night I want that. I didn't get that at all. The kitchen didn't have any accessories with it you have to go to the front desk to check it out. Issue with that is no one is ever at the front desk so you waiting around 10 minutes  before anybody comes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r555567440-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555567440</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Good Find</t>
+  </si>
+  <si>
+    <t>Great Stay, No problems whatsoever. Felt safe and was close to many different food/entertainment options. I would recommend staying here again anytime in southern california. Parking lot was secure as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Great Stay, No problems whatsoever. Felt safe and was close to many different food/entertainment options. I would recommend staying here again anytime in southern california. Parking lot was secure as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r554210095-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554210095</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Horrible experience. Couldn’t wait to leave.</t>
+  </si>
+  <si>
+    <t>Hard bed. Uncomfortable pillows. Handicap room. We’re not Handicaped. Towels for 1 person. We were 2. No continental breakfast as advertised. Little or no coffee. What there was was weak and tasteless. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Hard bed. Uncomfortable pillows. Handicap room. We’re not Handicaped. Towels for 1 person. We were 2. No continental breakfast as advertised. Little or no coffee. What there was was weak and tasteless. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r548328341-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>548328341</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>The worst 2 night I've ever had at a hotel</t>
+  </si>
+  <si>
+    <t>I complained about the guest above me stomping and nothing was done.  Went to and called the front desk several times and asked that he move me to another room.  He said they were booked the first night so I asked to be moved the next day and nothing happened.  He went on to say that he didn't hear any stomping and called other guests to see if they heard anything...smh.  I asked for the GM to give me a call and never received a call.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>I complained about the guest above me stomping and nothing was done.  Went to and called the front desk several times and asked that he move me to another room.  He said they were booked the first night so I asked to be moved the next day and nothing happened.  He went on to say that he didn't hear any stomping and called other guests to see if they heard anything...smh.  I asked for the GM to give me a call and never received a call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r538349139-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>538349139</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here if you can avoid it! This place is not clean!</t>
+  </si>
+  <si>
+    <t>If I could rate the staff I would give them 4 stars because for the most part they were very nice. The room were not clean. I had to switch rooms and the last room had bugs in them.  I would not stay here again! Do not recommend! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>If I could rate the staff I would give them 4 stars because for the most part they were very nice. The room were not clean. I had to switch rooms and the last room had bugs in them.  I would not stay here again! Do not recommend! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r534899438-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>534899438</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Awful because of the cleaning</t>
+  </si>
+  <si>
+    <t>Terrible it was  filthy  I felt uncomfortable the elevators were filthy the stairs area were filthy I don't know who's cleaning this hotel  it's just unreal how  filthy it is I will never stay at that hotel again MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded October 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2017</t>
+  </si>
+  <si>
+    <t>Terrible it was  filthy  I felt uncomfortable the elevators were filthy the stairs area were filthy I don't know who's cleaning this hotel  it's just unreal how  filthy it is I will never stay at that hotel again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r532411633-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532411633</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Home from Home</t>
+  </si>
+  <si>
+    <t>The staff member who checked me in was so helpful and pleasant after travelling 24 hours.  My room is  bright, spacious and very comfortable.  I am a writer and also studying at a local university and there is lots of desk room and window light, very important for me.  The room is cleaned by a very pleasant lady and is always spotless.  I feel totally safe here and relaxed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>The staff member who checked me in was so helpful and pleasant after travelling 24 hours.  My room is  bright, spacious and very comfortable.  I am a writer and also studying at a local university and there is lots of desk room and window light, very important for me.  The room is cleaned by a very pleasant lady and is always spotless.  I feel totally safe here and relaxed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r508888656-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508888656</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>these locations, not only Northridge, but every other location is dirty, gross, run down, old and ugly.  The Decour alone is ugly let alone how old and gross your furniture is.  I have been poor my whole life and I've never been on a bed as bad as you guys had in my last room.  I was charged $150 plus to stay at that location and I am utterly appalled and embarrassed you would even ask for that much. You guys need to put more money into your buildings because you take more money out of people's pockets. the only thing holding you guys together is your employees and I bet you don't even pay them enough. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>these locations, not only Northridge, but every other location is dirty, gross, run down, old and ugly.  The Decour alone is ugly let alone how old and gross your furniture is.  I have been poor my whole life and I've never been on a bed as bad as you guys had in my last room.  I was charged $150 plus to stay at that location and I am utterly appalled and embarrassed you would even ask for that much. You guys need to put more money into your buildings because you take more money out of people's pockets. the only thing holding you guys together is your employees and I bet you don't even pay them enough. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r508475696-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508475696</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Room dirty and poorly maintained, front desk understaffed</t>
+  </si>
+  <si>
+    <t>Front desk seemed overwhelmed/understaffed and had significant difficulty with finding my prepaid reservation. Room had stains on wall/flooring, loose plumbing fixtures and smelled heavily of cheap perfume. The continental breakfast was granola bars and terrible coffee. Location is in middle of strip mall area, nothing of interest to walk to. A couple of large chain restaurants and fast food are nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Front desk seemed overwhelmed/understaffed and had significant difficulty with finding my prepaid reservation. Room had stains on wall/flooring, loose plumbing fixtures and smelled heavily of cheap perfume. The continental breakfast was granola bars and terrible coffee. Location is in middle of strip mall area, nothing of interest to walk to. A couple of large chain restaurants and fast food are nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r507269225-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507269225</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep looking but not here </t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and have mixed feelings.  My room was nice but the rest of the hotel is a mess. The front desk it's understaffed and apparently used to difficult guests. The clientele of the hotel apoears to be folks down on their luck just trying to get a place to stay for the night and therefore not typical hotel guests. The elevators are not working correctly with one trapping guest's inside while the other operates very slowly. My room wasn't cleaned yesterday and frankly I felt guilty someone for help. The breakfast was just coffee and muffins. Not what I expected. I think this hotel has seen better times, guests,  staff and maintenance. Keep looking. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and have mixed feelings.  My room was nice but the rest of the hotel is a mess. The front desk it's understaffed and apparently used to difficult guests. The clientele of the hotel apoears to be folks down on their luck just trying to get a place to stay for the night and therefore not typical hotel guests. The elevators are not working correctly with one trapping guest's inside while the other operates very slowly. My room wasn't cleaned yesterday and frankly I felt guilty someone for help. The breakfast was just coffee and muffins. Not what I expected. I think this hotel has seen better times, guests,  staff and maintenance. Keep looking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r502232584-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>502232584</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Good hotel in a decent area</t>
+  </si>
+  <si>
+    <t>We only had a brief stay, for only one night. But the hotel was very comfortable and the staff was very friendly and helpful. There were restaurants and businesses within walking distance, so the location was convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>We only had a brief stay, for only one night. But the hotel was very comfortable and the staff was very friendly and helpful. There were restaurants and businesses within walking distance, so the location was convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r500970943-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>500970943</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Unhappy Stay</t>
+  </si>
+  <si>
+    <t>This is not a place I would recommend to stay at for the price unless your willing to take out your own trash, exchange your own towels everyday, pay to wash bedding, deal with having no breakfast sometimes and elevators that don't operate properly. The only way I would stay at this exact location again if it was free! Maybe other locations are better?!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>This is not a place I would recommend to stay at for the price unless your willing to take out your own trash, exchange your own towels everyday, pay to wash bedding, deal with having no breakfast sometimes and elevators that don't operate properly. The only way I would stay at this exact location again if it was free! Maybe other locations are better?!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r494065904-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>494065904</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Just wasn't right for us</t>
+  </si>
+  <si>
+    <t>We stayed there as it was the closest hotel to where our grandson was graduating from college. We normally stay in Marriott or Holiday Inn brands so this was new to us.We only needed one night but it was obvious that many people us it for extended stays at an affordable price. One floor was still a smoking floor (what?) but they were in the process of making the hotel totally non-smoking. They were renovating rooms and ours was in the process of being renovated. It meant that we had a new bed, which was much appreciated, but no dresser and the TV wasn't re-installed in the room. The floors were a type of hardwood, which looked good, probably easier to keep clean, but they transmit noise like crazy. We had someone walking in the room over our room at 1 am and the heavy footfalls kept us both awake. The front staff were good and the room was clean. But we won't be going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there as it was the closest hotel to where our grandson was graduating from college. We normally stay in Marriott or Holiday Inn brands so this was new to us.We only needed one night but it was obvious that many people us it for extended stays at an affordable price. One floor was still a smoking floor (what?) but they were in the process of making the hotel totally non-smoking. They were renovating rooms and ours was in the process of being renovated. It meant that we had a new bed, which was much appreciated, but no dresser and the TV wasn't re-installed in the room. The floors were a type of hardwood, which looked good, probably easier to keep clean, but they transmit noise like crazy. We had someone walking in the room over our room at 1 am and the heavy footfalls kept us both awake. The front staff were good and the room was clean. But we won't be going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r492864245-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>492864245</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Old, musty, hotel</t>
+  </si>
+  <si>
+    <t>This hotel was disgusting, dirty, smelled musty and old. There were cigarette burns in the bed blankets and in the comforter. Many holes. There were homeless people loitering in the parking lot. The room was dirty, smelled terrible, the breakfast consisted of coffee and stale muffins. We only received 2 washcloths for 4 people and upon countless requests never received any more washcloths. There were no extra blankets in the room. There was no hair dryer. The person above us was what sounded like jumping up and down and a constant pounding on the ceiling that shook our ceiling from 11:20 to 5:15 AM. When I tried to call the front desk, there was no answer so I called the extended stay customer service number and explained the situation with no response received as of yet which is 3 days later. Needless to say this was the worst experience ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was disgusting, dirty, smelled musty and old. There were cigarette burns in the bed blankets and in the comforter. Many holes. There were homeless people loitering in the parking lot. The room was dirty, smelled terrible, the breakfast consisted of coffee and stale muffins. We only received 2 washcloths for 4 people and upon countless requests never received any more washcloths. There were no extra blankets in the room. There was no hair dryer. The person above us was what sounded like jumping up and down and a constant pounding on the ceiling that shook our ceiling from 11:20 to 5:15 AM. When I tried to call the front desk, there was no answer so I called the extended stay customer service number and explained the situation with no response received as of yet which is 3 days later. Needless to say this was the worst experience ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r481014216-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>481014216</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat friendly lodging </t>
+  </si>
+  <si>
+    <t>After closing escrow we stayed here for the night. Room was reasonably priced, clean and perfect for our needs. Located conveniently in the middle of Northridge close to a wide selection of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>After closing escrow we stayed here for the night. Room was reasonably priced, clean and perfect for our needs. Located conveniently in the middle of Northridge close to a wide selection of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r478851157-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>478851157</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Great Hootel and staff</t>
+  </si>
+  <si>
+    <t>I stay at ESA whenever im in town and always receive the best treatment from Nahid and Shania, they truly make the stay that much more comfortable. The rooms are always clean and if you need anything like pots pans plates, u dont even have to ask, they always ask you before you get the chance to ask them. The location is also great being next to a big gym, plenty of restaurants. Overall this is an awesome hotel and location with the best staff. There is currently a shortage of good customer service in all industries, but not here at this location, its quite the opposite.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>I stay at ESA whenever im in town and always receive the best treatment from Nahid and Shania, they truly make the stay that much more comfortable. The rooms are always clean and if you need anything like pots pans plates, u dont even have to ask, they always ask you before you get the chance to ask them. The location is also great being next to a big gym, plenty of restaurants. Overall this is an awesome hotel and location with the best staff. There is currently a shortage of good customer service in all industries, but not here at this location, its quite the opposite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r457672746-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>457672746</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Manager is horrible. Rooms stink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would never recommend this place to anyone. It stinks of dog and is old and dirty. I checked checkout time with the morning receptionist and if I could leave my bags for a few hours as I had a late flight. Was told official 11 but 12 was ok. No problems to put my bags in the boiler room. She was nice. When I came down at 11.30 the manager wanted to charge me from 11 for late checkout and would not mind bags as he had no space. He  could not have been more rude or slimy. Don't  go here. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r448731401-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>448731401</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I was a bit skeptical after reading some of the reviews, but this was a clean hotel. They do have hair dryers available at the front desk. The staff was pleasant and a joy  to deal with. The people next to our room were really loud, but I think they may have been tenants at the hotel. That was the only con about staying here, but if I will definitely come back if I'm ever in the area againMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>I was a bit skeptical after reading some of the reviews, but this was a clean hotel. They do have hair dryers available at the front desk. The staff was pleasant and a joy  to deal with. The people next to our room were really loud, but I think they may have been tenants at the hotel. That was the only con about staying here, but if I will definitely come back if I'm ever in the area againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r439175551-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>439175551</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Quiet but old and tired</t>
+  </si>
+  <si>
+    <t>This property is located right off Tampa/Londelius St. in Northridge, CA.  The hotel is in need of an update.  The lobby is small and worn out.  Check in time is 3:00 p.m. and not a minute sooner.  I arrived at 2:45 p.m. and was asked to take a seat because check in was at 3:00.  So, plan accordingly.  Once I was able get into my room, it was clean but very old and tired.  The furniture did not match, the recliner did not work and there was no hair dryer.  That being said, the room was very quiet.  I did not hear anything and was able to get right to sleep.  The mattress was very firm and the pillows were nice and soft.  The water pressure is very weak which made it difficult to get the shampoo out of my hair.  There was plenty of free parking available.  I did appreciate the safety feature of having to use my room card to get into the hotel lobby.  I arrived at about 9:15 pm and the doors were locked, I did really like that feature.  They do serve coffee, tea, muffins, oatmeal and breakfast bars.  This was nice to be able to grab something as I headed out.  I also learned this was a pet friendly hotel.  As I was walking down the hall to my room there was a chorus of dogs on the other side of many of the...This property is located right off Tampa/Londelius St. in Northridge, CA.  The hotel is in need of an update.  The lobby is small and worn out.  Check in time is 3:00 p.m. and not a minute sooner.  I arrived at 2:45 p.m. and was asked to take a seat because check in was at 3:00.  So, plan accordingly.  Once I was able get into my room, it was clean but very old and tired.  The furniture did not match, the recliner did not work and there was no hair dryer.  That being said, the room was very quiet.  I did not hear anything and was able to get right to sleep.  The mattress was very firm and the pillows were nice and soft.  The water pressure is very weak which made it difficult to get the shampoo out of my hair.  There was plenty of free parking available.  I did appreciate the safety feature of having to use my room card to get into the hotel lobby.  I arrived at about 9:15 pm and the doors were locked, I did really like that feature.  They do serve coffee, tea, muffins, oatmeal and breakfast bars.  This was nice to be able to grab something as I headed out.  I also learned this was a pet friendly hotel.  As I was walking down the hall to my room there was a chorus of dogs on the other side of many of the doors.  There are specific rules for the animals so be sure to check ahead of time so you are aware of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This property is located right off Tampa/Londelius St. in Northridge, CA.  The hotel is in need of an update.  The lobby is small and worn out.  Check in time is 3:00 p.m. and not a minute sooner.  I arrived at 2:45 p.m. and was asked to take a seat because check in was at 3:00.  So, plan accordingly.  Once I was able get into my room, it was clean but very old and tired.  The furniture did not match, the recliner did not work and there was no hair dryer.  That being said, the room was very quiet.  I did not hear anything and was able to get right to sleep.  The mattress was very firm and the pillows were nice and soft.  The water pressure is very weak which made it difficult to get the shampoo out of my hair.  There was plenty of free parking available.  I did appreciate the safety feature of having to use my room card to get into the hotel lobby.  I arrived at about 9:15 pm and the doors were locked, I did really like that feature.  They do serve coffee, tea, muffins, oatmeal and breakfast bars.  This was nice to be able to grab something as I headed out.  I also learned this was a pet friendly hotel.  As I was walking down the hall to my room there was a chorus of dogs on the other side of many of the...This property is located right off Tampa/Londelius St. in Northridge, CA.  The hotel is in need of an update.  The lobby is small and worn out.  Check in time is 3:00 p.m. and not a minute sooner.  I arrived at 2:45 p.m. and was asked to take a seat because check in was at 3:00.  So, plan accordingly.  Once I was able get into my room, it was clean but very old and tired.  The furniture did not match, the recliner did not work and there was no hair dryer.  That being said, the room was very quiet.  I did not hear anything and was able to get right to sleep.  The mattress was very firm and the pillows were nice and soft.  The water pressure is very weak which made it difficult to get the shampoo out of my hair.  There was plenty of free parking available.  I did appreciate the safety feature of having to use my room card to get into the hotel lobby.  I arrived at about 9:15 pm and the doors were locked, I did really like that feature.  They do serve coffee, tea, muffins, oatmeal and breakfast bars.  This was nice to be able to grab something as I headed out.  I also learned this was a pet friendly hotel.  As I was walking down the hall to my room there was a chorus of dogs on the other side of many of the doors.  There are specific rules for the animals so be sure to check ahead of time so you are aware of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r429302707-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>429302707</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Meeh</t>
+  </si>
+  <si>
+    <t>This hotel is average. I had stayed in this hotel previously in February 2009 and had an amazing experience at the time. This time though, the hotel is just like an average place and way pricier for the service been offered. The Internet (WiFi) works and the air conditioner doesn't cool fast enough when its hot.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r419822229-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>419822229</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>It's seen better days!</t>
+  </si>
+  <si>
+    <t>Stayed one night just because we needed to be in the area in the early a.m.. Hotel in disrepair and trash all over the parking lot and grounds. The place smells and is unkept. They say the limit on dogs weight is limited to 20 lbs. but as we were checking in, a huge pit bull probably weighing 100 pounds lunged at us several times as the female owner (a hotel guest) struggled to hold the dog back as she tried to get him out of the lobby to go for a walk. Room stunk and the pillows and bedding stunk. Never again!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r404993087-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>404993087</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Sophia rocks...</t>
+  </si>
+  <si>
+    <t>Sophia manager at the front desk was awesome.  The room was clean, bed a bit too firm for me.  The AC worked well. I did have to wait to check in, there seems to be too little staff to cover everything! Sophia is going to set me up with the sales team to secure a corporate account for my visiting colleagues!  Should be a great location for us!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Sophia manager at the front desk was awesome.  The room was clean, bed a bit too firm for me.  The AC worked well. I did have to wait to check in, there seems to be too little staff to cover everything! Sophia is going to set me up with the sales team to secure a corporate account for my visiting colleagues!  Should be a great location for us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r384021135-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>384021135</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>No frills, bare bones, all that is in town</t>
+  </si>
+  <si>
+    <t>Upon entering the front lobby of this establishment, we were greeted with a view of the industrial laundry machines whirring away with the bedsheets of the day. The place is like a barebones hotel, with little in the way of niceties. They do offer a small continental breakfast in the lobby, across from the whirring machines. You must take it to your room, as there are no tables or chairs - probably for the best since the machines make the ambience less than enjoyable. Personnel seemed new and lacking in knowledge, or just that "we can't" is their default setting. Trouble is, there isn't much in the way of accommodation in Northridge, despite a university close by. This place is very close to the university, one of it's few attributes.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Upon entering the front lobby of this establishment, we were greeted with a view of the industrial laundry machines whirring away with the bedsheets of the day. The place is like a barebones hotel, with little in the way of niceties. They do offer a small continental breakfast in the lobby, across from the whirring machines. You must take it to your room, as there are no tables or chairs - probably for the best since the machines make the ambience less than enjoyable. Personnel seemed new and lacking in knowledge, or just that "we can't" is their default setting. Trouble is, there isn't much in the way of accommodation in Northridge, despite a university close by. This place is very close to the university, one of it's few attributes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r378493138-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>378493138</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Nice Hotel. Stayed twice. 2ND time we stayed we had to change  rooms because the room smelled like cigarettes.  But overall ok stay. We did set off smoke alarm while cooking dinner. Parking is well lit. Only concern is that there was no one in the front at times</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r375173698-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>375173698</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Nice in Northridge</t>
+  </si>
+  <si>
+    <t>I was very happy with the clean renovated room that I received with Extended Stay. Every morning I was greeted with a nice continental breakfast and fresh tasty coffee. I enjoyed the fruit, cereal bars, and muffins particularly. I felt safe, and the staff was excellent and helpful. The lobby was small but nice and cheerful. The room was quiet and peaceful.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r355795489-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>355795489</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positives: location near a lot of restaurants, off street parkingNegatives: "free Hi-fi" only the slowest, pay daily for any faster service Towels small and very rough, if you need replacement have to go to the deskPay $10 a day for maid service but not reliable, some days not doneOnly queen size beds available No utensils or glasses in kitchen"Free breakfast" only coffee, small muffins in plastic, or small granola bars on a table in the lobby with no place to sitStaff always apologizing ( they have a lot to apologize for) </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r330945833-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>330945833</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>No extra blanket, no hair dryer, don't care attitude of hotel staff</t>
+  </si>
+  <si>
+    <t>Booked the hotel through Hotwire as stated to be a 3.5 star hotel. Arrived at night around 11pm after a long and tiring day and wife was sick. Requested the guy at reception for an extra blanket. He asked to come back in 30 minutes as they were getting washed. After 30 minutes, came back and a different lady was there. She said there are no extra blankets. Argued and requested for about 15 minutes - at midnight completely tired and sleep-deprived. She finally said come back in an hour. Went back after an hour and was provided a blanket as if i have been done a huge favor. What kind of hotel does not have an extra blanket? If I have to wait and plead for a blanket 3 times post midnight after a very long day I will give the hotel 1 star (cheaper motels are better).Not to forget, next morning there was no hair dryer in the room. Called room service and they said they do not provide hair dryers.Seriously?? Then he said, there is one here in the lobby - come and pick it.Wow! Great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Booked the hotel through Hotwire as stated to be a 3.5 star hotel. Arrived at night around 11pm after a long and tiring day and wife was sick. Requested the guy at reception for an extra blanket. He asked to come back in 30 minutes as they were getting washed. After 30 minutes, came back and a different lady was there. She said there are no extra blankets. Argued and requested for about 15 minutes - at midnight completely tired and sleep-deprived. She finally said come back in an hour. Went back after an hour and was provided a blanket as if i have been done a huge favor. What kind of hotel does not have an extra blanket? If I have to wait and plead for a blanket 3 times post midnight after a very long day I will give the hotel 1 star (cheaper motels are better).Not to forget, next morning there was no hair dryer in the room. Called room service and they said they do not provide hair dryers.Seriously?? Then he said, there is one here in the lobby - come and pick it.Wow! Great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r325743443-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>325743443</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>If you have another option try it</t>
+  </si>
+  <si>
+    <t>Room is OK, good kitchen and bathroom. Staff is friendly.But if you need internet there is no option. It is the worst Wi-Fi connection. I try to pay 20 dollars for better but it looks like a waste of money. So I can't work from my hotel and have to search places with good internet.And another big problem is that my room have not been cleaned for 2 weeks. And hotel staff said that they can't do anything. Looks like it is a normal situation.Breakfasts are really poor and sometimes I can't find anything at 7AM even.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r274479394-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>274479394</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Clean on the surface</t>
+  </si>
+  <si>
+    <t>Towels- YEA! Plentiful replacement.  NAY! At least 300 grit sandpaper grade softness.
+Bathroom -YEA! Clean. NAY!  Exhaust Fan made a good awful noise, stuffed it with a wad of toilet paper and it was livable. Tub faucet dribbles, which is a sin in water stricken L.A.  Impossible to completely it turn off.
+Wifi- YEA! Free. NAY! Couldn't get our roku to connect.
+Bed- YEA! It was in the room. NAY! One side of the bed was padded. The other side of the bed was missing the padding. If one likes to sleep in a bed on metal. This is the bed for you. When we mentioned the bed to the desk clerk we were told it was within health code. So I went and looked up health code, sure enough only health code requirement is that it be clean and present, which it is. Sheets were clean, we think. The bottom sheet was upside down, impossible to tell if it was clean on the other side.  Didn't want to look. Ignorance is bliss. Blanket had burn holes. And was as soft as the towels.
+Staff- at check in the girl was disheveled, probably cause she was overwhelmed. At check out the clerk thought he was a comedian,  and gave my husband a lecture about the sugar content in the creamer, while my husband was attempting to inform him of some of the room issues. Instead of listening to my husband's...Towels- YEA! Plentiful replacement.  NAY! At least 300 grit sandpaper grade softness.Bathroom -YEA! Clean. NAY!  Exhaust Fan made a good awful noise, stuffed it with a wad of toilet paper and it was livable. Tub faucet dribbles, which is a sin in water stricken L.A.  Impossible to completely it turn off.Wifi- YEA! Free. NAY! Couldn't get our roku to connect.Bed- YEA! It was in the room. NAY! One side of the bed was padded. The other side of the bed was missing the padding. If one likes to sleep in a bed on metal. This is the bed for you. When we mentioned the bed to the desk clerk we were told it was within health code. So I went and looked up health code, sure enough only health code requirement is that it be clean and present, which it is. Sheets were clean, we think. The bottom sheet was upside down, impossible to tell if it was clean on the other side.  Didn't want to look. Ignorance is bliss. Blanket had burn holes. And was as soft as the towels.Staff- at check in the girl was disheveled, probably cause she was overwhelmed. At check out the clerk thought he was a comedian,  and gave my husband a lecture about the sugar content in the creamer, while my husband was attempting to inform him of some of the room issues. Instead of listening to my husband's information, he was still going on about the sugar content in the creamer supplied by the hotel. When I asked him to write down the manager's name, he thought he again was being clever with me and made some comment about writing the name down that was somewhat derogatory. Then when I reinterated the issues with the bed, he told me it was within health code. My thought health code is one thing, thinking of guest comfort is another. The next people in this room will suffer the same issues and from what I gather, will hear the same answer... It's within health code. The underlying response is "we are making money and we don't care if we see you again!" Good luck if this is your destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Towels- YEA! Plentiful replacement.  NAY! At least 300 grit sandpaper grade softness.
+Bathroom -YEA! Clean. NAY!  Exhaust Fan made a good awful noise, stuffed it with a wad of toilet paper and it was livable. Tub faucet dribbles, which is a sin in water stricken L.A.  Impossible to completely it turn off.
+Wifi- YEA! Free. NAY! Couldn't get our roku to connect.
+Bed- YEA! It was in the room. NAY! One side of the bed was padded. The other side of the bed was missing the padding. If one likes to sleep in a bed on metal. This is the bed for you. When we mentioned the bed to the desk clerk we were told it was within health code. So I went and looked up health code, sure enough only health code requirement is that it be clean and present, which it is. Sheets were clean, we think. The bottom sheet was upside down, impossible to tell if it was clean on the other side.  Didn't want to look. Ignorance is bliss. Blanket had burn holes. And was as soft as the towels.
+Staff- at check in the girl was disheveled, probably cause she was overwhelmed. At check out the clerk thought he was a comedian,  and gave my husband a lecture about the sugar content in the creamer, while my husband was attempting to inform him of some of the room issues. Instead of listening to my husband's...Towels- YEA! Plentiful replacement.  NAY! At least 300 grit sandpaper grade softness.Bathroom -YEA! Clean. NAY!  Exhaust Fan made a good awful noise, stuffed it with a wad of toilet paper and it was livable. Tub faucet dribbles, which is a sin in water stricken L.A.  Impossible to completely it turn off.Wifi- YEA! Free. NAY! Couldn't get our roku to connect.Bed- YEA! It was in the room. NAY! One side of the bed was padded. The other side of the bed was missing the padding. If one likes to sleep in a bed on metal. This is the bed for you. When we mentioned the bed to the desk clerk we were told it was within health code. So I went and looked up health code, sure enough only health code requirement is that it be clean and present, which it is. Sheets were clean, we think. The bottom sheet was upside down, impossible to tell if it was clean on the other side.  Didn't want to look. Ignorance is bliss. Blanket had burn holes. And was as soft as the towels.Staff- at check in the girl was disheveled, probably cause she was overwhelmed. At check out the clerk thought he was a comedian,  and gave my husband a lecture about the sugar content in the creamer, while my husband was attempting to inform him of some of the room issues. Instead of listening to my husband's information, he was still going on about the sugar content in the creamer supplied by the hotel. When I asked him to write down the manager's name, he thought he again was being clever with me and made some comment about writing the name down that was somewhat derogatory. Then when I reinterated the issues with the bed, he told me it was within health code. My thought health code is one thing, thinking of guest comfort is another. The next people in this room will suffer the same issues and from what I gather, will hear the same answer... It's within health code. The underlying response is "we are making money and we don't care if we see you again!" Good luck if this is your destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r271844046-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>271844046</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Northridge Extended Stay</t>
+  </si>
+  <si>
+    <t>This property is in a good location. Easy freeway access, restaurants and a shopping mall. I stay at this location once a week and have been for a couple of years. The staff is always friendly.  The rooms are clean and the beds are very comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>This property is in a good location. Easy freeway access, restaurants and a shopping mall. I stay at this location once a week and have been for a couple of years. The staff is always friendly.  The rooms are clean and the beds are very comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r259802836-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>259802836</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Work trip last week:  slightly better experience than what it costs to stay here</t>
+  </si>
+  <si>
+    <t>I was with work for the Costco location which couldn't have been any better (across the street on Tampa).  This area of the Valley (Northridge/Chatsworth) has few decent hotels in the 3-4 star range, and those that are there are OVER PRICED.  This hotel was a happy find based on quality and price point.  It is clean, basic accommodation with ample parking and super convenient.  This Extended Stay is like all others:  cheaply and poorly built construction will most likely assure you'll hear a lot of other noise, and other people staying in the hotel.  A room with only a couple of people can sound like a party here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>I was with work for the Costco location which couldn't have been any better (across the street on Tampa).  This area of the Valley (Northridge/Chatsworth) has few decent hotels in the 3-4 star range, and those that are there are OVER PRICED.  This hotel was a happy find based on quality and price point.  It is clean, basic accommodation with ample parking and super convenient.  This Extended Stay is like all others:  cheaply and poorly built construction will most likely assure you'll hear a lot of other noise, and other people staying in the hotel.  A room with only a couple of people can sound like a party here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r246664603-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>246664603</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>never again........</t>
+  </si>
+  <si>
+    <t>Good thing:dog friendly so met lovely dogs &amp; owners - no good if you not like. Clean &amp; night lady excellent. Good location as shops nearby-that's it....very noisy as have overseas students staying all year so avoid top floor. Non-smoking room smelled of smoke lady told me previous guest rejected room for that. Staff sprayed the room with freshener but that not work! Basic toiletries (bathroom) &amp; utensils (kitchen) People coming &amp; going all hours of night &amp; through side door by bedroom so door constantly banging. Anyone could get in (as could tell guests staying too even if not)&amp; through front as not always manned so safely issues especially for lone traveller. Breakfast basic, muffins poor quality &amp; not much on offer. Asked to speak with manager each day but constant excuses he not around &amp; no one else can make a decision. I left day earlier &amp; head office reimbursed me as an apology for so many problems. Returning next year to US but have found alternative accommodation.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Good thing:dog friendly so met lovely dogs &amp; owners - no good if you not like. Clean &amp; night lady excellent. Good location as shops nearby-that's it....very noisy as have overseas students staying all year so avoid top floor. Non-smoking room smelled of smoke lady told me previous guest rejected room for that. Staff sprayed the room with freshener but that not work! Basic toiletries (bathroom) &amp; utensils (kitchen) People coming &amp; going all hours of night &amp; through side door by bedroom so door constantly banging. Anyone could get in (as could tell guests staying too even if not)&amp; through front as not always manned so safely issues especially for lone traveller. Breakfast basic, muffins poor quality &amp; not much on offer. Asked to speak with manager each day but constant excuses he not around &amp; no one else can make a decision. I left day earlier &amp; head office reimbursed me as an apology for so many problems. Returning next year to US but have found alternative accommodation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r243541733-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>243541733</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>I was extremely satisfied with my  stay.</t>
+  </si>
+  <si>
+    <t>I loved the great service I received from check in to check out. Nahid, an employee at the front desk was especially friendly and helpful. He always went above and beyond to fulfill my requests. I hope management acknowledges his hardwork because great customer service is hard to find. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>I loved the great service I received from check in to check out. Nahid, an employee at the front desk was especially friendly and helpful. He always went above and beyond to fulfill my requests. I hope management acknowledges his hardwork because great customer service is hard to find. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r237566612-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>237566612</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Very clean. Newly renovated.</t>
+  </si>
+  <si>
+    <t>I travel weekly for work and stay at many low to moderate priced hotels. This was one of the nicest extended stays i have seen. The rooms were clean and smelled new. It felt safe. I would hv given it a 5 but the parking lot was fikled with people smoking and the front area wasbfilled with bikes. Maybe they rent them but alas they clutted the front and got in the way.Also the free "breakfast" is really apples and granola bars. I will be staying the again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>I travel weekly for work and stay at many low to moderate priced hotels. This was one of the nicest extended stays i have seen. The rooms were clean and smelled new. It felt safe. I would hv given it a 5 but the parking lot was fikled with people smoking and the front area wasbfilled with bikes. Maybe they rent them but alas they clutted the front and got in the way.Also the free "breakfast" is really apples and granola bars. I will be staying the again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r208932548-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208932548</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Terrible place to stay if u want your room cleaned and beds made every day.</t>
+  </si>
+  <si>
+    <t>I was really nit pleased with thus place. We stayed here dot my nephews graduation and he was graduating from csu Northridge. When we arrived there we got there at a about 2:00 p.m.  and we were told the rooms were not ready and had to wait until 3:00 and the rooms will be ready. We went and got a lil bit to eat and came back to the hotel to find out that my auntie needed my I.d. to get the room. So I gave it to her then the man is telling my auntie and u quote oh can I get back your  credit card so if you guys decide to wanna steal a t.v. we can charge your credit card. I then tell him we don't want your tv or anything else I have numerous tv's in my house do  not need your small.a## flat screen. Then they say they.give u.a continental breakfast in the morning and it was nothing but breakfast bars. So on Sunday was when we were leaving and I set my alarm to wake up @ 4:30 a.m and I end up waking up to alarms going off in the hotel. It wakes up everybody in the hotel and we all are jumping up to get out. Come to find out they say somebody was cooking food @ 3:00a.m and open the door and let smoke out. Now i am up at three...I was really nit pleased with thus place. We stayed here dot my nephews graduation and he was graduating from csu Northridge. When we arrived there we got there at a about 2:00 p.m.  and we were told the rooms were not ready and had to wait until 3:00 and the rooms will be ready. We went and got a lil bit to eat and came back to the hotel to find out that my auntie needed my I.d. to get the room. So I gave it to her then the man is telling my auntie and u quote oh can I get back your  credit card so if you guys decide to wanna steal a t.v. we can charge your credit card. I then tell him we don't want your tv or anything else I have numerous tv's in my house do  not need your small.a## flat screen. Then they say they.give u.a continental breakfast in the morning and it was nothing but breakfast bars. So on Sunday was when we were leaving and I set my alarm to wake up @ 4:30 a.m and I end up waking up to alarms going off in the hotel. It wakes up everybody in the hotel and we all are jumping up to get out. Come to find out they say somebody was cooking food @ 3:00a.m and open the door and let smoke out. Now i am up at three o'clock and cant go back to sleep b cuz we had to be up at four thirty in the morning. I will never ever stay at this place again for what we paid we should if had better serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded June 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2014</t>
+  </si>
+  <si>
+    <t>I was really nit pleased with thus place. We stayed here dot my nephews graduation and he was graduating from csu Northridge. When we arrived there we got there at a about 2:00 p.m.  and we were told the rooms were not ready and had to wait until 3:00 and the rooms will be ready. We went and got a lil bit to eat and came back to the hotel to find out that my auntie needed my I.d. to get the room. So I gave it to her then the man is telling my auntie and u quote oh can I get back your  credit card so if you guys decide to wanna steal a t.v. we can charge your credit card. I then tell him we don't want your tv or anything else I have numerous tv's in my house do  not need your small.a## flat screen. Then they say they.give u.a continental breakfast in the morning and it was nothing but breakfast bars. So on Sunday was when we were leaving and I set my alarm to wake up @ 4:30 a.m and I end up waking up to alarms going off in the hotel. It wakes up everybody in the hotel and we all are jumping up to get out. Come to find out they say somebody was cooking food @ 3:00a.m and open the door and let smoke out. Now i am up at three...I was really nit pleased with thus place. We stayed here dot my nephews graduation and he was graduating from csu Northridge. When we arrived there we got there at a about 2:00 p.m.  and we were told the rooms were not ready and had to wait until 3:00 and the rooms will be ready. We went and got a lil bit to eat and came back to the hotel to find out that my auntie needed my I.d. to get the room. So I gave it to her then the man is telling my auntie and u quote oh can I get back your  credit card so if you guys decide to wanna steal a t.v. we can charge your credit card. I then tell him we don't want your tv or anything else I have numerous tv's in my house do  not need your small.a## flat screen. Then they say they.give u.a continental breakfast in the morning and it was nothing but breakfast bars. So on Sunday was when we were leaving and I set my alarm to wake up @ 4:30 a.m and I end up waking up to alarms going off in the hotel. It wakes up everybody in the hotel and we all are jumping up to get out. Come to find out they say somebody was cooking food @ 3:00a.m and open the door and let smoke out. Now i am up at three o'clock and cant go back to sleep b cuz we had to be up at four thirty in the morning. I will never ever stay at this place again for what we paid we should if had better serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r208196245-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208196245</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Room has it's own kitchen so we can cook ans save a little to eatout while we were staying. Great location and there are many restaurant located nearby and shopping is very close. Also it is not too far from freeway to Universal Studios and Hollywood.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Room has it's own kitchen so we can cook ans save a little to eatout while we were staying. Great location and there are many restaurant located nearby and shopping is very close. Also it is not too far from freeway to Universal Studios and Hollywood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r202553602-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202553602</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>everything was great</t>
+  </si>
+  <si>
+    <t>everything was great , good location nice big clean room rode housekeeping staff ( one girl ) we was going to use the elevator but she had say you have to wait i will use it .grab breakfast is not that goodMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>everything was great , good location nice big clean room rode housekeeping staff ( one girl ) we was going to use the elevator but she had say you have to wait i will use it .grab breakfast is not that goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r197098517-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197098517</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Anything you need, ask for it.</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights while we were visiting our daughter. The staff was very accommodating. Remember, it is an extended stay not luxury hotel. Anything we needed we asked the staff. They were helpful for necessities we forgot or didn't bring (ask for hair dryers, extra hangers). The hotel is located within walking distance of a convenience store, food market, Big Lots and Dollar store for items you may need. There are lots of eating establishments all around and a large shopping mall with a theater and nice eating places about 4 blocks away (long blocks, but doable). The staff was helpful when we need to have tickets printed off for boarding pass and the Getty Villa. Beds were comfortable. Down side, no patio or area outside with benches or chairs and not much of a lobby. We were busy sightseeing during the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights while we were visiting our daughter. The staff was very accommodating. Remember, it is an extended stay not luxury hotel. Anything we needed we asked the staff. They were helpful for necessities we forgot or didn't bring (ask for hair dryers, extra hangers). The hotel is located within walking distance of a convenience store, food market, Big Lots and Dollar store for items you may need. There are lots of eating establishments all around and a large shopping mall with a theater and nice eating places about 4 blocks away (long blocks, but doable). The staff was helpful when we need to have tickets printed off for boarding pass and the Getty Villa. Beds were comfortable. Down side, no patio or area outside with benches or chairs and not much of a lobby. We were busy sightseeing during the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r194750931-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>194750931</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>You get less than you pay for</t>
+  </si>
+  <si>
+    <t>Had to stay somewhere local due to home renos. This place was near by.You need to ask for everything. towels, face cloths, dish towel, soap, shampoo etc.The rooms are the bare minimum.Beds are less than comfortable, sheets are cheap.Bath towels are lower quality than what I get the YMCA for a workout.No daily cleaning service.Staff are conditionally friendly - it all depends on what you need."Breakfast" - stop at the coffee - that's pretty good, the rest is better left alone.After 2 nights I went searching for an alternative.I found the Hilton in Woodland Hills for about $30 LESS per night.This is a destination of last resort.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Had to stay somewhere local due to home renos. This place was near by.You need to ask for everything. towels, face cloths, dish towel, soap, shampoo etc.The rooms are the bare minimum.Beds are less than comfortable, sheets are cheap.Bath towels are lower quality than what I get the YMCA for a workout.No daily cleaning service.Staff are conditionally friendly - it all depends on what you need."Breakfast" - stop at the coffee - that's pretty good, the rest is better left alone.After 2 nights I went searching for an alternative.I found the Hilton in Woodland Hills for about $30 LESS per night.This is a destination of last resort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r194061486-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>194061486</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Very Basic Clean Stay</t>
+  </si>
+  <si>
+    <t>We paid around $90 for a king smoking room (by accident.)  Room was clean, had a bed, stove fridge, tv, and iron. Air/Heat worked well in the room.  Nothing really above average about the hotel, except for maybe the service, everyone was very friendly.Good area next to restaurants and mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>We paid around $90 for a king smoking room (by accident.)  Room was clean, had a bed, stove fridge, tv, and iron. Air/Heat worked well in the room.  Nothing really above average about the hotel, except for maybe the service, everyone was very friendly.Good area next to restaurants and mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r190797190-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190797190</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional Staff, Clean and Safe. </t>
+  </si>
+  <si>
+    <t>We're a young couple from England, staying in Northridge from September to December 2013 due to work and family commitments. Before we arrived at Extended Stay America we were apprehensive, largely due to some of the reviews on here. However we couldn't have been happier. Firstly the rooms were spacious and clean, the maid services the room based on how many nights you're staying, if you need towels or sheets, the front desk always had plenty when we asked. The rooms also had all the kitchen equipment that you would need, as well as an iron and ironing board.We were actually on the smoking floor, but in a non-smoking room, my girlfriend's very sensitive to smoke, but we never had any problem, the hallways were always clean and fresh.  The huge asset that they have here is the staff, all of the people who worked on the desk made our stay as pleasant as possible, they were friendly and personable, offering help, which for us being from the UK was excellent. The staff who serviced the room were also very pleasant and professional. Both myself, and my girlfriend would stay at Extended Stay America again if we were in the country for a prolonged period. Thanks again to the staff, and sorry it's taken us a while to write a review. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded January 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2014</t>
+  </si>
+  <si>
+    <t>We're a young couple from England, staying in Northridge from September to December 2013 due to work and family commitments. Before we arrived at Extended Stay America we were apprehensive, largely due to some of the reviews on here. However we couldn't have been happier. Firstly the rooms were spacious and clean, the maid services the room based on how many nights you're staying, if you need towels or sheets, the front desk always had plenty when we asked. The rooms also had all the kitchen equipment that you would need, as well as an iron and ironing board.We were actually on the smoking floor, but in a non-smoking room, my girlfriend's very sensitive to smoke, but we never had any problem, the hallways were always clean and fresh.  The huge asset that they have here is the staff, all of the people who worked on the desk made our stay as pleasant as possible, they were friendly and personable, offering help, which for us being from the UK was excellent. The staff who serviced the room were also very pleasant and professional. Both myself, and my girlfriend would stay at Extended Stay America again if we were in the country for a prolonged period. Thanks again to the staff, and sorry it's taken us a while to write a review. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r190778779-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190778779</t>
+  </si>
+  <si>
+    <t>Will not come back</t>
+  </si>
+  <si>
+    <t>This was our first and last stay at ESA.
+Stayed only for one night.  We arrived around noon and asked for an early check in if possible the clerk did not even bother looking on the computer and immediately said there's no room available.  Yeah right, the parking lot is not even full.  Anyway came back and asked to use the restroom and was told no restroom available.  I can't believe it even a gas station offers restroom but the front desk was adamant they don't offer restroom only the guestroom has restroom.  Well I explained I can't check in until 3pm but he just shrugged. oh my he is not very friendly at all.
+After running around came back at 7:40pm and checked in with Jonathan who seems to be the opposite of the unfriendly front desk earlier in the day.
+The room is nice and spacious, however I am disappointed that the linens are not fresh.  Looks used to me, the good thing is I always carry my own pillows and sheets sort of paranoid.  so because of that I did not get to sleep comfortably. 
+Location is perfect - it is within walking distance to all the restaurants and fast food chains nearby.
+Breakfast - they provide "good" coffee - oatmeal bars, oranges and apples.  nothing fancy.
+I've heard complains about water not hot, our room is at 403 and did not have that problem.
+In addition...This was our first and last stay at ESA.Stayed only for one night.  We arrived around noon and asked for an early check in if possible the clerk did not even bother looking on the computer and immediately said there's no room available.  Yeah right, the parking lot is not even full.  Anyway came back and asked to use the restroom and was told no restroom available.  I can't believe it even a gas station offers restroom but the front desk was adamant they don't offer restroom only the guestroom has restroom.  Well I explained I can't check in until 3pm but he just shrugged. oh my he is not very friendly at all.After running around came back at 7:40pm and checked in with Jonathan who seems to be the opposite of the unfriendly front desk earlier in the day.The room is nice and spacious, however I am disappointed that the linens are not fresh.  Looks used to me, the good thing is I always carry my own pillows and sheets sort of paranoid.  so because of that I did not get to sleep comfortably. Location is perfect - it is within walking distance to all the restaurants and fast food chains nearby.Breakfast - they provide "good" coffee - oatmeal bars, oranges and apples.  nothing fancy.I've heard complains about water not hot, our room is at 403 and did not have that problem.In addition the thermostat control was not working and it would take a day to get maintenance since were checking out the next day there's no point.ESA is mainly for weekly or monthly rentals since they offer small kitchenettes but not really a hotel facility.  Don't think I am coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded January 16, 2014</t>
+  </si>
+  <si>
+    <t>This was our first and last stay at ESA.
+Stayed only for one night.  We arrived around noon and asked for an early check in if possible the clerk did not even bother looking on the computer and immediately said there's no room available.  Yeah right, the parking lot is not even full.  Anyway came back and asked to use the restroom and was told no restroom available.  I can't believe it even a gas station offers restroom but the front desk was adamant they don't offer restroom only the guestroom has restroom.  Well I explained I can't check in until 3pm but he just shrugged. oh my he is not very friendly at all.
+After running around came back at 7:40pm and checked in with Jonathan who seems to be the opposite of the unfriendly front desk earlier in the day.
+The room is nice and spacious, however I am disappointed that the linens are not fresh.  Looks used to me, the good thing is I always carry my own pillows and sheets sort of paranoid.  so because of that I did not get to sleep comfortably. 
+Location is perfect - it is within walking distance to all the restaurants and fast food chains nearby.
+Breakfast - they provide "good" coffee - oatmeal bars, oranges and apples.  nothing fancy.
+I've heard complains about water not hot, our room is at 403 and did not have that problem.
+In addition...This was our first and last stay at ESA.Stayed only for one night.  We arrived around noon and asked for an early check in if possible the clerk did not even bother looking on the computer and immediately said there's no room available.  Yeah right, the parking lot is not even full.  Anyway came back and asked to use the restroom and was told no restroom available.  I can't believe it even a gas station offers restroom but the front desk was adamant they don't offer restroom only the guestroom has restroom.  Well I explained I can't check in until 3pm but he just shrugged. oh my he is not very friendly at all.After running around came back at 7:40pm and checked in with Jonathan who seems to be the opposite of the unfriendly front desk earlier in the day.The room is nice and spacious, however I am disappointed that the linens are not fresh.  Looks used to me, the good thing is I always carry my own pillows and sheets sort of paranoid.  so because of that I did not get to sleep comfortably. Location is perfect - it is within walking distance to all the restaurants and fast food chains nearby.Breakfast - they provide "good" coffee - oatmeal bars, oranges and apples.  nothing fancy.I've heard complains about water not hot, our room is at 403 and did not have that problem.In addition the thermostat control was not working and it would take a day to get maintenance since were checking out the next day there's no point.ESA is mainly for weekly or monthly rentals since they offer small kitchenettes but not really a hotel facility.  Don't think I am coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r188159973-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188159973</t>
+  </si>
+  <si>
+    <t>12/20/2013</t>
+  </si>
+  <si>
+    <t>Loud, cold shower, and unfriendly.</t>
+  </si>
+  <si>
+    <t>I unfortunately stayed at this facility for 8 weeks while working night shift nearby. The facility was loud, the staff unfriendly, and my stay unpleasant.Do not disturb signs were ignored, showers sometimes cold (they have been "working to correct this" for MONTHS), and towels were hard to come by. Housekeeping comes once a week for long staying customers and in my case only vacuumed on the third visit.  My non smoking floor often reeked of cigarettes.  Pet friendly includes dogs barking during the day and poop by the entrances.  The small kitchens allow guests to prepare meals so be ready for cooking smells both pleasant and not so pleasant.  They have Culligan filters on the kitchen faucets however mine leaked more out the sides than came out the spout.The "Breakfast" was sparse.The dedicated parking space marked for Law Enforcement by the entrance was not reassuring.Can not recommend. Would refuse to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded December 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2013</t>
+  </si>
+  <si>
+    <t>I unfortunately stayed at this facility for 8 weeks while working night shift nearby. The facility was loud, the staff unfriendly, and my stay unpleasant.Do not disturb signs were ignored, showers sometimes cold (they have been "working to correct this" for MONTHS), and towels were hard to come by. Housekeeping comes once a week for long staying customers and in my case only vacuumed on the third visit.  My non smoking floor often reeked of cigarettes.  Pet friendly includes dogs barking during the day and poop by the entrances.  The small kitchens allow guests to prepare meals so be ready for cooking smells both pleasant and not so pleasant.  They have Culligan filters on the kitchen faucets however mine leaked more out the sides than came out the spout.The "Breakfast" was sparse.The dedicated parking space marked for Law Enforcement by the entrance was not reassuring.Can not recommend. Would refuse to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r181824636-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>181824636</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>only a bed...</t>
+  </si>
+  <si>
+    <t>This "hotel" is one of the worst I've ever stayed in. They don't provide shampoo, Kleenex or bath soap. Room had no toilet paper. They do however provide complimentary dish soap?!? Very strange. Thin walls and barely hot water on the 2nd floor. I'd heard good things about Extended Stays ... I sure hope they all aren't like this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>This "hotel" is one of the worst I've ever stayed in. They don't provide shampoo, Kleenex or bath soap. Room had no toilet paper. They do however provide complimentary dish soap?!? Very strange. Thin walls and barely hot water on the 2nd floor. I'd heard good things about Extended Stays ... I sure hope they all aren't like this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r173366223-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>173366223</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Room, Hallways, and Elevators Smell of Smoke and Must</t>
+  </si>
+  <si>
+    <t>Our nonsmoking room smelled of smoke.  The hallways outside of our room smelled of weed and the elevators smell extremely musty.  One time the elevator didnt go down we had to get out and walk down the stairs which is fine for us but might be inconvienent to someone in a wheel chair.Disappointed to find (after we booked) that there was no fitness center.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r170715815-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>170715815</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Good  home base, nice staff, good value</t>
+  </si>
+  <si>
+    <t>The last time I stayed at this hotel it was a dump, but I stayed there anyway because of the location near the friend I was visiting.  The remodel makes it much nicer, and this stay was great.  The hot water in my bathroom didn't work when I arrived but was fixed very quickly.  The staff could not have been nicer.  Since it had just been remodeled there was still a bit of a paint smell (to me) but that will pass.  The room was not cleaned during my stay but I believe that's normal for a stay of my length (6 days.)  Overall, a pleasant experience and I'll likely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2013</t>
+  </si>
+  <si>
+    <t>The last time I stayed at this hotel it was a dump, but I stayed there anyway because of the location near the friend I was visiting.  The remodel makes it much nicer, and this stay was great.  The hot water in my bathroom didn't work when I arrived but was fixed very quickly.  The staff could not have been nicer.  Since it had just been remodeled there was still a bit of a paint smell (to me) but that will pass.  The room was not cleaned during my stay but I believe that's normal for a stay of my length (6 days.)  Overall, a pleasant experience and I'll likely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r169368421-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169368421</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Benita the manager is amazing!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel recently, and I have to say that Benita is probably the most professional, warm and polite manager/front desk person I have ever encountered in an hotel stay.  Before we arrived, I called and asked about a concern I had about staying in extended stay-type lodging and Benita was polite, informative, plus very giving of her time.  I never felt rushed on the phone.  Because of her, we decided to visit the hotel for a look-see.  Benita was available and very patient with all of my questions. She showed us a typical room and assured me it would be ready that afternoon.  Again, because of Benita, we decided to try the hotel and were not disappointed (for a number of reasons).  We checked in and were delighted to find that she had given us a corner room (which helped with my concerns).  It was great--but not as great as Benita.  Kudos to Extended Stay for hiring such a wonderful manager!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel recently, and I have to say that Benita is probably the most professional, warm and polite manager/front desk person I have ever encountered in an hotel stay.  Before we arrived, I called and asked about a concern I had about staying in extended stay-type lodging and Benita was polite, informative, plus very giving of her time.  I never felt rushed on the phone.  Because of her, we decided to visit the hotel for a look-see.  Benita was available and very patient with all of my questions. She showed us a typical room and assured me it would be ready that afternoon.  Again, because of Benita, we decided to try the hotel and were not disappointed (for a number of reasons).  We checked in and were delighted to find that she had given us a corner room (which helped with my concerns).  It was great--but not as great as Benita.  Kudos to Extended Stay for hiring such a wonderful manager!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r167686760-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167686760</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Checked in late, lady at the front desk was as tired as I was so it was very short and sweet which I appreciated.  Room was clean and fully stocked with plates, cups and had a water filter attached to the faucet so I could finally drink LA tap water.  Room felt brand new and had "wood" floors in the kitchen/bath area.  Nice new tv and cold AC.  Bed is a little stiff but over all a good nights sleep.  I agree that the price at check in is different that the price quoted on line but the small print says it doesn't include taxes.  I'm guessing that is where the extra cost comes from.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in late, lady at the front desk was as tired as I was so it was very short and sweet which I appreciated.  Room was clean and fully stocked with plates, cups and had a water filter attached to the faucet so I could finally drink LA tap water.  Room felt brand new and had "wood" floors in the kitchen/bath area.  Nice new tv and cold AC.  Bed is a little stiff but over all a good nights sleep.  I agree that the price at check in is different that the price quoted on line but the small print says it doesn't include taxes.  I'm guessing that is where the extra cost comes from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r166980789-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166980789</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Staff not being courteous and they charge the room rate whatever they want</t>
+  </si>
+  <si>
+    <t>I am not happy with this hotel that i am staying at feeling being ripped off.  next time i will make sure to go to Hilton or Marriots hotel for the price I got charge for.  I check in for $99 for a weekly rate.  The time I check for daily rate was $114. I call and spoke with the agent they told me I can check out anytimeIf before one week my rate will be $114.  When I ask to check out they charge me $156 a dayAnd I try to ask for help the counter person just ignored meAnd just handed me the paperto sign and he make a statement to my friend  about me, Does she speak English ?How rude!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not happy with this hotel that i am staying at feeling being ripped off.  next time i will make sure to go to Hilton or Marriots hotel for the price I got charge for.  I check in for $99 for a weekly rate.  The time I check for daily rate was $114. I call and spoke with the agent they told me I can check out anytimeIf before one week my rate will be $114.  When I ask to check out they charge me $156 a dayAnd I try to ask for help the counter person just ignored meAnd just handed me the paperto sign and he make a statement to my friend  about me, Does she speak English ?How rude!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r156702303-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156702303</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>A Good Nights Sleep</t>
+  </si>
+  <si>
+    <t>Overall, this is a very good hotel and I did get a good nights sleep. That's most important.  But this is also not a normal hotel, it truly is designed for extended stays. So some of the amenities that you would find at a regular hotel you will not find here:
+Pros: 
+- Very clean room. 
+- Very nice staff.
+- Very quite room.
+- Very comfy bed.
+- Good nights sleep.
+These are also the most important things for me.
+Cons:
+- Busy train tracks near by. There are train tracks very close by which at first I thought was going to be a big problem sleep but because of the double, double pain windows(yes, two sets of double pain windows), the train became just a whisper when the windows were shut.
+- Wifi? Free is only worth it if you are going to check email. Paid for (I upgraded for $3 and what a nightmare in itself to upgrade) is only worth it if you are going to check email. I tried to watch a movie from Amazon prime, but it paused so many times to catch up that I finally gave up. Went to Youtube and same thing. Their TV has no movies as it has just basic cable so I ended up just watching the Discovery Channel.
+- No Pool
+- No Spa
+- No exercise room
+- Breakfast? by 7:30am was nothing left but a...Overall, this is a very good hotel and I did get a good nights sleep. That's most important.  But this is also not a normal hotel, it truly is designed for extended stays. So some of the amenities that you would find at a regular hotel you will not find here:Pros: - Very clean room. - Very nice staff.- Very quite room.- Very comfy bed.- Good nights sleep.These are also the most important things for me.Cons:- Busy train tracks near by. There are train tracks very close by which at first I thought was going to be a big problem sleep but because of the double, double pain windows(yes, two sets of double pain windows), the train became just a whisper when the windows were shut.- Wifi? Free is only worth it if you are going to check email. Paid for (I upgraded for $3 and what a nightmare in itself to upgrade) is only worth it if you are going to check email. I tried to watch a movie from Amazon prime, but it paused so many times to catch up that I finally gave up. Went to Youtube and same thing. Their TV has no movies as it has just basic cable so I ended up just watching the Discovery Channel.- No Pool- No Spa- No exercise room- Breakfast? by 7:30am was nothing left but a couple of apples and a granola bar. Oh, but there was coffee. plenty of good coffee. - No amenities. no shampoo, no lotion. There was a bar of soap though.These were all ancillary things so I did not downgrade the hotel because of them. I just did not understand what an Extended Stay hotel was. This is just more FYI for the next guy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Overall, this is a very good hotel and I did get a good nights sleep. That's most important.  But this is also not a normal hotel, it truly is designed for extended stays. So some of the amenities that you would find at a regular hotel you will not find here:
+Pros: 
+- Very clean room. 
+- Very nice staff.
+- Very quite room.
+- Very comfy bed.
+- Good nights sleep.
+These are also the most important things for me.
+Cons:
+- Busy train tracks near by. There are train tracks very close by which at first I thought was going to be a big problem sleep but because of the double, double pain windows(yes, two sets of double pain windows), the train became just a whisper when the windows were shut.
+- Wifi? Free is only worth it if you are going to check email. Paid for (I upgraded for $3 and what a nightmare in itself to upgrade) is only worth it if you are going to check email. I tried to watch a movie from Amazon prime, but it paused so many times to catch up that I finally gave up. Went to Youtube and same thing. Their TV has no movies as it has just basic cable so I ended up just watching the Discovery Channel.
+- No Pool
+- No Spa
+- No exercise room
+- Breakfast? by 7:30am was nothing left but a...Overall, this is a very good hotel and I did get a good nights sleep. That's most important.  But this is also not a normal hotel, it truly is designed for extended stays. So some of the amenities that you would find at a regular hotel you will not find here:Pros: - Very clean room. - Very nice staff.- Very quite room.- Very comfy bed.- Good nights sleep.These are also the most important things for me.Cons:- Busy train tracks near by. There are train tracks very close by which at first I thought was going to be a big problem sleep but because of the double, double pain windows(yes, two sets of double pain windows), the train became just a whisper when the windows were shut.- Wifi? Free is only worth it if you are going to check email. Paid for (I upgraded for $3 and what a nightmare in itself to upgrade) is only worth it if you are going to check email. I tried to watch a movie from Amazon prime, but it paused so many times to catch up that I finally gave up. Went to Youtube and same thing. Their TV has no movies as it has just basic cable so I ended up just watching the Discovery Channel.- No Pool- No Spa- No exercise room- Breakfast? by 7:30am was nothing left but a couple of apples and a granola bar. Oh, but there was coffee. plenty of good coffee. - No amenities. no shampoo, no lotion. There was a bar of soap though.These were all ancillary things so I did not downgrade the hotel because of them. I just did not understand what an Extended Stay hotel was. This is just more FYI for the next guy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r155663318-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155663318</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>good for the money I paid. my kids love the breakfast .  the staff was friendly and help with all our needs.  there were good restruants near by .  Gen always had a smile and was ery willing to help in any way.  although the room was a smoking room it did not smell like smoke.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>good for the money I paid. my kids love the breakfast .  the staff was friendly and help with all our needs.  there were good restruants near by .  Gen always had a smile and was ery willing to help in any way.  although the room was a smoking room it did not smell like smoke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r152471168-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152471168</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Phenomenal Stay!</t>
+  </si>
+  <si>
+    <t>So.....it was me and my cousin's 1st time in the land of angels and before visiting all the usual touristy spots we had to go pay a visit to our extended family in Porter Ranch but unfortunately because of an emergency situation at their house ,they put us up at this never-heard-of before hotel chain.We were quite iffy about it at first and wanted to check out the location and room before checking in esp since there is a police parking spot right up front.
+Let me just say,the staff here is phe-no-me-nal and managed to turn around our impression from the get go!!!The girl at the desk was so efficient &amp; super understanding of our situation and showed us a double room in a quiet corner that we immediately felt at ease and checked in.The room was like a mini apartment with all the features that a studio has so we felt totally at home.They are ALL so friendly at the reception and gave us everything we needed to be comfortable including popcorn and hot chocolate!The hotel did not have a pool or gym which was a downer for us but they are so close to many restaurants and a major shopping mall so we had plenty to do during our short week there.They had a continental kind of breakfast ,we never made it in time as its only till 9.30am but they would still give us coffee &amp;...So.....it was me and my cousin's 1st time in the land of angels and before visiting all the usual touristy spots we had to go pay a visit to our extended family in Porter Ranch but unfortunately because of an emergency situation at their house ,they put us up at this never-heard-of before hotel chain.We were quite iffy about it at first and wanted to check out the location and room before checking in esp since there is a police parking spot right up front.Let me just say,the staff here is phe-no-me-nal and managed to turn around our impression from the get go!!!The girl at the desk was so efficient &amp; super understanding of our situation and showed us a double room in a quiet corner that we immediately felt at ease and checked in.The room was like a mini apartment with all the features that a studio has so we felt totally at home.They are ALL so friendly at the reception and gave us everything we needed to be comfortable including popcorn and hot chocolate!The hotel did not have a pool or gym which was a downer for us but they are so close to many restaurants and a major shopping mall so we had plenty to do during our short week there.They had a continental kind of breakfast ,we never made it in time as its only till 9.30am but they would still give us coffee &amp; fruit most of the time,such great service ! We will definitely recommend this awesome hotel to anyone needing a more than just a hotel room type of place that is safe and clean and very home-y.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>So.....it was me and my cousin's 1st time in the land of angels and before visiting all the usual touristy spots we had to go pay a visit to our extended family in Porter Ranch but unfortunately because of an emergency situation at their house ,they put us up at this never-heard-of before hotel chain.We were quite iffy about it at first and wanted to check out the location and room before checking in esp since there is a police parking spot right up front.
+Let me just say,the staff here is phe-no-me-nal and managed to turn around our impression from the get go!!!The girl at the desk was so efficient &amp; super understanding of our situation and showed us a double room in a quiet corner that we immediately felt at ease and checked in.The room was like a mini apartment with all the features that a studio has so we felt totally at home.They are ALL so friendly at the reception and gave us everything we needed to be comfortable including popcorn and hot chocolate!The hotel did not have a pool or gym which was a downer for us but they are so close to many restaurants and a major shopping mall so we had plenty to do during our short week there.They had a continental kind of breakfast ,we never made it in time as its only till 9.30am but they would still give us coffee &amp;...So.....it was me and my cousin's 1st time in the land of angels and before visiting all the usual touristy spots we had to go pay a visit to our extended family in Porter Ranch but unfortunately because of an emergency situation at their house ,they put us up at this never-heard-of before hotel chain.We were quite iffy about it at first and wanted to check out the location and room before checking in esp since there is a police parking spot right up front.Let me just say,the staff here is phe-no-me-nal and managed to turn around our impression from the get go!!!The girl at the desk was so efficient &amp; super understanding of our situation and showed us a double room in a quiet corner that we immediately felt at ease and checked in.The room was like a mini apartment with all the features that a studio has so we felt totally at home.They are ALL so friendly at the reception and gave us everything we needed to be comfortable including popcorn and hot chocolate!The hotel did not have a pool or gym which was a downer for us but they are so close to many restaurants and a major shopping mall so we had plenty to do during our short week there.They had a continental kind of breakfast ,we never made it in time as its only till 9.30am but they would still give us coffee &amp; fruit most of the time,such great service ! We will definitely recommend this awesome hotel to anyone needing a more than just a hotel room type of place that is safe and clean and very home-y.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r147768103-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147768103</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>The Extended Stay in Northridge is a well maintained hotel. The rooms are nice and clean, comfortable too. The staff is friend and helpful. The coffee is pretty good. Overall, a great place to stay, whether it's for a night or two or longer. MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded December 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2012</t>
+  </si>
+  <si>
+    <t>The Extended Stay in Northridge is a well maintained hotel. The rooms are nice and clean, comfortable too. The staff is friend and helpful. The coffee is pretty good. Overall, a great place to stay, whether it's for a night or two or longer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r147671172-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147671172</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>I'd have to say I'm admired by the staff at this location!!! The Mgr is Ashe. Nahid, Jesus, Gen, &amp; Perrin have all been very hospitable during my numerous stays at this hotel. Everyone should be very commendable in their manner and approach; felt like home! This hotel is clean and has a comfortable environment. The rooms are equipped to be very private in that Ive never had complaints about noise! I felt at home when i stayed here and I definitely will be returning! I would 100% recommend this hotel to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>I'd have to say I'm admired by the staff at this location!!! The Mgr is Ashe. Nahid, Jesus, Gen, &amp; Perrin have all been very hospitable during my numerous stays at this hotel. Everyone should be very commendable in their manner and approach; felt like home! This hotel is clean and has a comfortable environment. The rooms are equipped to be very private in that Ive never had complaints about noise! I felt at home when i stayed here and I definitely will be returning! I would 100% recommend this hotel to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r147625952-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147625952</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Mystay at Extended Stay</t>
+  </si>
+  <si>
+    <t>I aqm staying at Extended Stay because I am between apts. I stayed Hear last year for a while and had a very good experience with the whole staff, the room was clean, service was very good, so I came back and I have not been disapointed so far with my stay this time, the staff has been very hepfull and curtious, I have and will recomend friends and people about this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I aqm staying at Extended Stay because I am between apts. I stayed Hear last year for a while and had a very good experience with the whole staff, the room was clean, service was very good, so I came back and I have not been disapointed so far with my stay this time, the staff has been very hepfull and curtious, I have and will recomend friends and people about this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r140018337-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>140018337</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME, EXCELLENT HOTEL</t>
+  </si>
+  <si>
+    <t>i and my husband stayed at this hotel last year and i really loved it, so we decided to come back and stay here this year also. i love the area, i love the surroundings and the location where the hotel is. most of all i love the friendly and helpful staff, they have become like a part of my family. they are always there to accommodate us in anything we want.  i would highly recommend this hotel for anyone who is looking for a temporary place  to stay.  it has a all the amenities, with free wi-fi and free parking.this is our home away from home and i love it, i would never go and stay anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded September 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2012</t>
+  </si>
+  <si>
+    <t>i and my husband stayed at this hotel last year and i really loved it, so we decided to come back and stay here this year also. i love the area, i love the surroundings and the location where the hotel is. most of all i love the friendly and helpful staff, they have become like a part of my family. they are always there to accommodate us in anything we want.  i would highly recommend this hotel for anyone who is looking for a temporary place  to stay.  it has a all the amenities, with free wi-fi and free parking.this is our home away from home and i love it, i would never go and stay anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r137225902-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>137225902</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!!!</t>
+  </si>
+  <si>
+    <t>I have been residing at Extended Stay Northridge for over 2 years.  I love the staff, Ashe, Annjannett, Nahid, and Gen, are all so very nice.  The hotel is kept very nice and clean and Housekeeping Staff is very courteous and helpful.  The staff, especially Ashe, is very accommodating, understanding and easy to communicate with and very good at problem solving.  Because this has been my home for the past 2 1/2 years, I have always felt comfortable and safe.  Any and all complaints are immediately addressed and the entire staff's aim is to make sure their clients are satisfied.  I would definitely recommend ESAN as it is strategically and conviently located and a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded August 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2012</t>
+  </si>
+  <si>
+    <t>I have been residing at Extended Stay Northridge for over 2 years.  I love the staff, Ashe, Annjannett, Nahid, and Gen, are all so very nice.  The hotel is kept very nice and clean and Housekeeping Staff is very courteous and helpful.  The staff, especially Ashe, is very accommodating, understanding and easy to communicate with and very good at problem solving.  Because this has been my home for the past 2 1/2 years, I have always felt comfortable and safe.  Any and all complaints are immediately addressed and the entire staff's aim is to make sure their clients are satisfied.  I would definitely recommend ESAN as it is strategically and conviently located and a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r132285817-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132285817</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Smoke, no hair dryer, no maid service</t>
+  </si>
+  <si>
+    <t>For the first time, I feel completely mislead by the TripAdvisor reviews.  Because of the favorable reviews, I picked Extended Stay America in Northridge and had one of the worst hotel rooms I've experienced in the last 10 years.  In summary: tons of smoke, no hair dryers, no luggage rack, fake breakfast, no closet, dirty carpet, no maid service (only done once per week), no fitness center, no pool in hot hot San Fernando Valley, and the "free wifi" was only 0.7Mbps.
+I knew I was in trouble when I drove up and saw that a parking space in front was reserved for the police.  When I asked why that was necessary, the clerk said ALL hotels have that.  
+My non-smoking room had an ashtray and reeked of smoke.  I called the front desk, and the clerk offered to come take the ashtray away.  Like that would help.  I declined.  No offer to change my room.  There is no non-smoking wing, and there was so much smoke in the hallway, I knew it was fruitless to complain.  I tried stuffing a towel in front of the door, but smoke came in thru the bathroom ventilation. We didnt have time to change hotels the next AM, so i resigned myself to burning eyes for 2 nights.  The clerk did give me a can of deodorizer, but it didn't work.  The carpet was so dirty, we decided not to sit on it...For the first time, I feel completely mislead by the TripAdvisor reviews.  Because of the favorable reviews, I picked Extended Stay America in Northridge and had one of the worst hotel rooms I've experienced in the last 10 years.  In summary: tons of smoke, no hair dryers, no luggage rack, fake breakfast, no closet, dirty carpet, no maid service (only done once per week), no fitness center, no pool in hot hot San Fernando Valley, and the "free wifi" was only 0.7Mbps.I knew I was in trouble when I drove up and saw that a parking space in front was reserved for the police.  When I asked why that was necessary, the clerk said ALL hotels have that.  My non-smoking room had an ashtray and reeked of smoke.  I called the front desk, and the clerk offered to come take the ashtray away.  Like that would help.  I declined.  No offer to change my room.  There is no non-smoking wing, and there was so much smoke in the hallway, I knew it was fruitless to complain.  I tried stuffing a towel in front of the door, but smoke came in thru the bathroom ventilation. We didnt have time to change hotels the next AM, so i resigned myself to burning eyes for 2 nights.  The clerk did give me a can of deodorizer, but it didn't work.  The carpet was so dirty, we decided not to sit on it or the couch.  The kitchen and bathroom floor were covered with cigarette burns.The wifi was too slow to use for anything but email.  You can get 3Mbps if you are willing to pay $3 per day.The next morning, I took a shower and then looked for the hair dryer.  Called the front desk.  "We don't provide hair dryers.  As a courtesy, we keep 2 at the front desk, but they're both in use.  I'll call you when one is returned.". AARRGHH!  Breakfast was another joke.  There is a tiny table in the lobby with coffee, hot water, instant oatmeal, tiny apples and oranges, and nutrigrain bars.  At ~$100 per night, you're better off with any best western or Marriott.  This hotel is no bargain.BTW, I looked at those earlier positive reviews.  Most of them were submitted by people who had never posted a review before.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Northridge, responded to this reviewResponded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>For the first time, I feel completely mislead by the TripAdvisor reviews.  Because of the favorable reviews, I picked Extended Stay America in Northridge and had one of the worst hotel rooms I've experienced in the last 10 years.  In summary: tons of smoke, no hair dryers, no luggage rack, fake breakfast, no closet, dirty carpet, no maid service (only done once per week), no fitness center, no pool in hot hot San Fernando Valley, and the "free wifi" was only 0.7Mbps.
+I knew I was in trouble when I drove up and saw that a parking space in front was reserved for the police.  When I asked why that was necessary, the clerk said ALL hotels have that.  
+My non-smoking room had an ashtray and reeked of smoke.  I called the front desk, and the clerk offered to come take the ashtray away.  Like that would help.  I declined.  No offer to change my room.  There is no non-smoking wing, and there was so much smoke in the hallway, I knew it was fruitless to complain.  I tried stuffing a towel in front of the door, but smoke came in thru the bathroom ventilation. We didnt have time to change hotels the next AM, so i resigned myself to burning eyes for 2 nights.  The clerk did give me a can of deodorizer, but it didn't work.  The carpet was so dirty, we decided not to sit on it...For the first time, I feel completely mislead by the TripAdvisor reviews.  Because of the favorable reviews, I picked Extended Stay America in Northridge and had one of the worst hotel rooms I've experienced in the last 10 years.  In summary: tons of smoke, no hair dryers, no luggage rack, fake breakfast, no closet, dirty carpet, no maid service (only done once per week), no fitness center, no pool in hot hot San Fernando Valley, and the "free wifi" was only 0.7Mbps.I knew I was in trouble when I drove up and saw that a parking space in front was reserved for the police.  When I asked why that was necessary, the clerk said ALL hotels have that.  My non-smoking room had an ashtray and reeked of smoke.  I called the front desk, and the clerk offered to come take the ashtray away.  Like that would help.  I declined.  No offer to change my room.  There is no non-smoking wing, and there was so much smoke in the hallway, I knew it was fruitless to complain.  I tried stuffing a towel in front of the door, but smoke came in thru the bathroom ventilation. We didnt have time to change hotels the next AM, so i resigned myself to burning eyes for 2 nights.  The clerk did give me a can of deodorizer, but it didn't work.  The carpet was so dirty, we decided not to sit on it or the couch.  The kitchen and bathroom floor were covered with cigarette burns.The wifi was too slow to use for anything but email.  You can get 3Mbps if you are willing to pay $3 per day.The next morning, I took a shower and then looked for the hair dryer.  Called the front desk.  "We don't provide hair dryers.  As a courtesy, we keep 2 at the front desk, but they're both in use.  I'll call you when one is returned.". AARRGHH!  Breakfast was another joke.  There is a tiny table in the lobby with coffee, hot water, instant oatmeal, tiny apples and oranges, and nutrigrain bars.  At ~$100 per night, you're better off with any best western or Marriott.  This hotel is no bargain.BTW, I looked at those earlier positive reviews.  Most of them were submitted by people who had never posted a review before.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r128624986-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128624986</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>BEWARE !!!</t>
+  </si>
+  <si>
+    <t>Manager non responsive to my complaints, property smells of Marijuana &amp; they double billed me on several days. I would never stay at this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Manager non responsive to my complaints, property smells of Marijuana &amp; they double billed me on several days. I would never stay at this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r127129209-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127129209</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Clean and practical</t>
+  </si>
+  <si>
+    <t>I stayed at this location in March for a month and really aprpeciated all that this hotel has to offer.The location was perfect for the valley and easy access to my job training site as well as numerous attractions in Los Angeles.The rooms are like mini condos and bigger than my apartment in NYC!The ability to cook in my own room was a huge money saver and definitely the main reason for choosing this hotel over others in the area.For a single lady I felt safe and secure and thats a huge plus in a big city like LA.I have stayed at some other Extended Stays around the country and this one stood out for me because of the quality of customer service which was usually non existent at the other hotels I have experienced in this chain.The front desk staff is always eager to please and very effecient as well as the housekeepers .My compliments to the manager of this team !My only concern and recommendation would be to have housekeeping on daily basis,even if its just a refresh service and to update the rooms decor .I was told they would begin serving breakfast soon so that would add even more value .Thank you for a great stay and hope to get this kind of positive experience at other extended stay locations as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this location in March for a month and really aprpeciated all that this hotel has to offer.The location was perfect for the valley and easy access to my job training site as well as numerous attractions in Los Angeles.The rooms are like mini condos and bigger than my apartment in NYC!The ability to cook in my own room was a huge money saver and definitely the main reason for choosing this hotel over others in the area.For a single lady I felt safe and secure and thats a huge plus in a big city like LA.I have stayed at some other Extended Stays around the country and this one stood out for me because of the quality of customer service which was usually non existent at the other hotels I have experienced in this chain.The front desk staff is always eager to please and very effecient as well as the housekeepers .My compliments to the manager of this team !My only concern and recommendation would be to have housekeeping on daily basis,even if its just a refresh service and to update the rooms decor .I was told they would begin serving breakfast soon so that would add even more value .Thank you for a great stay and hope to get this kind of positive experience at other extended stay locations as well.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2207,4130 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>245</v>
+      </c>
+      <c r="X25" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>301</v>
+      </c>
+      <c r="X33" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>335</v>
+      </c>
+      <c r="X37" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>339</v>
+      </c>
+      <c r="J38" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L38" t="s">
+        <v>342</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>343</v>
+      </c>
+      <c r="X38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>347</v>
+      </c>
+      <c r="J39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K39" t="s">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s">
+        <v>350</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>364</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s">
+        <v>367</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>368</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" t="s">
+        <v>89</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>378</v>
+      </c>
+      <c r="X42" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>377</v>
+      </c>
+      <c r="O43" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>394</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>395</v>
+      </c>
+      <c r="X44" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>402</v>
+      </c>
+      <c r="O45" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>403</v>
+      </c>
+      <c r="X45" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>411</v>
+      </c>
+      <c r="X46" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>415</v>
+      </c>
+      <c r="J47" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" t="s">
+        <v>417</v>
+      </c>
+      <c r="L47" t="s">
+        <v>418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>419</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>420</v>
+      </c>
+      <c r="X47" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>428</v>
+      </c>
+      <c r="O48" t="s">
+        <v>175</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>430</v>
+      </c>
+      <c r="J49" t="s">
+        <v>431</v>
+      </c>
+      <c r="K49" t="s">
+        <v>432</v>
+      </c>
+      <c r="L49" t="s">
+        <v>433</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>434</v>
+      </c>
+      <c r="O49" t="s">
+        <v>435</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>436</v>
+      </c>
+      <c r="X49" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>439</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>440</v>
+      </c>
+      <c r="J50" t="s">
+        <v>441</v>
+      </c>
+      <c r="K50" t="s">
+        <v>442</v>
+      </c>
+      <c r="L50" t="s">
+        <v>443</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>434</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>446</v>
+      </c>
+      <c r="J51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K51" t="s">
+        <v>448</v>
+      </c>
+      <c r="L51" t="s">
+        <v>449</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>451</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>452</v>
+      </c>
+      <c r="J52" t="s">
+        <v>453</v>
+      </c>
+      <c r="K52" t="s">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s">
+        <v>455</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>462</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" t="s">
+        <v>467</v>
+      </c>
+      <c r="L54" t="s">
+        <v>468</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>469</v>
+      </c>
+      <c r="O54" t="s">
+        <v>435</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>470</v>
+      </c>
+      <c r="X54" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>478</v>
+      </c>
+      <c r="O55" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>479</v>
+      </c>
+      <c r="X55" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" t="s">
+        <v>485</v>
+      </c>
+      <c r="L56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>487</v>
+      </c>
+      <c r="X56" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>490</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>491</v>
+      </c>
+      <c r="J57" t="s">
+        <v>492</v>
+      </c>
+      <c r="K57" t="s">
+        <v>493</v>
+      </c>
+      <c r="L57" t="s">
+        <v>494</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>487</v>
+      </c>
+      <c r="X57" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>496</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>497</v>
+      </c>
+      <c r="J58" t="s">
+        <v>498</v>
+      </c>
+      <c r="K58" t="s">
+        <v>499</v>
+      </c>
+      <c r="L58" t="s">
+        <v>500</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>501</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>487</v>
+      </c>
+      <c r="X58" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>503</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>504</v>
+      </c>
+      <c r="J59" t="s">
+        <v>505</v>
+      </c>
+      <c r="K59" t="s">
+        <v>506</v>
+      </c>
+      <c r="L59" t="s">
+        <v>507</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>508</v>
+      </c>
+      <c r="O59" t="s">
+        <v>175</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>509</v>
+      </c>
+      <c r="X59" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>512</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>513</v>
+      </c>
+      <c r="J60" t="s">
+        <v>514</v>
+      </c>
+      <c r="K60" t="s">
+        <v>515</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>517</v>
+      </c>
+      <c r="O60" t="s">
+        <v>89</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>518</v>
+      </c>
+      <c r="X60" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>522</v>
+      </c>
+      <c r="J61" t="s">
+        <v>523</v>
+      </c>
+      <c r="K61" t="s">
+        <v>524</v>
+      </c>
+      <c r="L61" t="s">
+        <v>525</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>526</v>
+      </c>
+      <c r="O61" t="s">
+        <v>175</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>527</v>
+      </c>
+      <c r="X61" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>531</v>
+      </c>
+      <c r="J62" t="s">
+        <v>532</v>
+      </c>
+      <c r="K62" t="s">
+        <v>533</v>
+      </c>
+      <c r="L62" t="s">
+        <v>534</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>535</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>527</v>
+      </c>
+      <c r="X62" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53597</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>542</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>543</v>
+      </c>
+      <c r="X63" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="607">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ruggedtoast</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The location is OK but that's where the good news ends. Staff are harassed, there are "long term residents", building smells of smoke and there are cigarette butts dropped around the communal areas in spite of the numerous forms guests have to sign promising not to smoke. The hallways smell, there are places to put trash  but it appears that most guest prefer to dump their rubbish outside their doors in the hope fairies take it away. My room was barricaded by two bell carts with empty beer bottles on them when I checked in. Housekeeping had done their best with my room. I was very glad to check out from here. The price I paid really didn't reflect what I got.More</t>
   </si>
   <si>
+    <t>mike K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r575042695-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Stayed here three nights.......Ok room......they do not clean the rooms every day.....all pots and pans are held at the front desk...........Walking distance to restuarents.......I paid $102 per night ,,,,,,,,,,,it not worth any more than that........breakfast is just coffee, breakfast bars, and muffis.......I went next door for a real breakfast............free parkingMore</t>
   </si>
   <si>
+    <t>clfmct25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r572167806-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>The whole purpose of an extended stay is so you fell like home. And if I'm paying 200 a night I want that. I didn't get that at all. The kitchen didn't have any accessories with it you have to go to the front desk to check it out. Issue with that is no one is ever at the front desk so you waiting around 10 minutes  before anybody comes.More</t>
   </si>
   <si>
+    <t>Richard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r555567440-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Great Stay, No problems whatsoever. Felt safe and was close to many different food/entertainment options. I would recommend staying here again anytime in southern california. Parking lot was secure as well. More</t>
   </si>
   <si>
+    <t>rockamatic2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r554210095-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Hard bed. Uncomfortable pillows. Handicap room. We’re not Handicaped. Towels for 1 person. We were 2. No continental breakfast as advertised. Little or no coffee. What there was was weak and tasteless. More</t>
   </si>
   <si>
+    <t>anisciac2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r548328341-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>I complained about the guest above me stomping and nothing was done.  Went to and called the front desk several times and asked that he move me to another room.  He said they were booked the first night so I asked to be moved the next day and nothing happened.  He went on to say that he didn't hear any stomping and called other guests to see if they heard anything...smh.  I asked for the GM to give me a call and never received a call.More</t>
   </si>
   <si>
+    <t>b19902017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r538349139-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>If I could rate the staff I would give them 4 stars because for the most part they were very nice. The room were not clean. I had to switch rooms and the last room had bugs in them.  I would not stay here again! Do not recommend! More</t>
   </si>
   <si>
+    <t>tinacP9252RY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r534899438-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Terrible it was  filthy  I felt uncomfortable the elevators were filthy the stairs area were filthy I don't know who's cleaning this hotel  it's just unreal how  filthy it is I will never stay at that hotel again More</t>
   </si>
   <si>
+    <t>772mauron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r532411633-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>The staff member who checked me in was so helpful and pleasant after travelling 24 hours.  My room is  bright, spacious and very comfortable.  I am a writer and also studying at a local university and there is lots of desk room and window light, very important for me.  The room is cleaned by a very pleasant lady and is always spotless.  I feel totally safe here and relaxed.More</t>
   </si>
   <si>
+    <t>marygC7705CL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r508888656-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>these locations, not only Northridge, but every other location is dirty, gross, run down, old and ugly.  The Decour alone is ugly let alone how old and gross your furniture is.  I have been poor my whole life and I've never been on a bed as bad as you guys had in my last room.  I was charged $150 plus to stay at that location and I am utterly appalled and embarrassed you would even ask for that much. You guys need to put more money into your buildings because you take more money out of people's pockets. the only thing holding you guys together is your employees and I bet you don't even pay them enough. More</t>
   </si>
   <si>
+    <t>GetMeToWhiteSand</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r508475696-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>Front desk seemed overwhelmed/understaffed and had significant difficulty with finding my prepaid reservation. Room had stains on wall/flooring, loose plumbing fixtures and smelled heavily of cheap perfume. The continental breakfast was granola bars and terrible coffee. Location is in middle of strip mall area, nothing of interest to walk to. A couple of large chain restaurants and fast food are nearby.More</t>
   </si>
   <si>
+    <t>pentupfury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r507269225-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>I stayed at this hotel and have mixed feelings.  My room was nice but the rest of the hotel is a mess. The front desk it's understaffed and apparently used to difficult guests. The clientele of the hotel apoears to be folks down on their luck just trying to get a place to stay for the night and therefore not typical hotel guests. The elevators are not working correctly with one trapping guest's inside while the other operates very slowly. My room wasn't cleaned yesterday and frankly I felt guilty someone for help. The breakfast was just coffee and muffins. Not what I expected. I think this hotel has seen better times, guests,  staff and maintenance. Keep looking. More</t>
   </si>
   <si>
+    <t>jerroldi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r502232584-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>We only had a brief stay, for only one night. But the hotel was very comfortable and the staff was very friendly and helpful. There were restaurants and businesses within walking distance, so the location was convenient.More</t>
   </si>
   <si>
+    <t>941reginaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r500970943-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>This is not a place I would recommend to stay at for the price unless your willing to take out your own trash, exchange your own towels everyday, pay to wash bedding, deal with having no breakfast sometimes and elevators that don't operate properly. The only way I would stay at this exact location again if it was free! Maybe other locations are better?!More</t>
   </si>
   <si>
+    <t>Bill G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r494065904-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>We stayed there as it was the closest hotel to where our grandson was graduating from college. We normally stay in Marriott or Holiday Inn brands so this was new to us.We only needed one night but it was obvious that many people us it for extended stays at an affordable price. One floor was still a smoking floor (what?) but they were in the process of making the hotel totally non-smoking. They were renovating rooms and ours was in the process of being renovated. It meant that we had a new bed, which was much appreciated, but no dresser and the TV wasn't re-installed in the room. The floors were a type of hardwood, which looked good, probably easier to keep clean, but they transmit noise like crazy. We had someone walking in the room over our room at 1 am and the heavy footfalls kept us both awake. The front staff were good and the room was clean. But we won't be going back.More</t>
   </si>
   <si>
+    <t>valsvacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r492864245-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>This hotel was disgusting, dirty, smelled musty and old. There were cigarette burns in the bed blankets and in the comforter. Many holes. There were homeless people loitering in the parking lot. The room was dirty, smelled terrible, the breakfast consisted of coffee and stale muffins. We only received 2 washcloths for 4 people and upon countless requests never received any more washcloths. There were no extra blankets in the room. There was no hair dryer. The person above us was what sounded like jumping up and down and a constant pounding on the ceiling that shook our ceiling from 11:20 to 5:15 AM. When I tried to call the front desk, there was no answer so I called the extended stay customer service number and explained the situation with no response received as of yet which is 3 days later. Needless to say this was the worst experience ever!More</t>
   </si>
   <si>
+    <t>littlemomma_1955</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r481014216-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -606,6 +657,9 @@
     <t>After closing escrow we stayed here for the night. Room was reasonably priced, clean and perfect for our needs. Located conveniently in the middle of Northridge close to a wide selection of restaurants.More</t>
   </si>
   <si>
+    <t>Rocky B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r478851157-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -633,6 +687,9 @@
     <t>I stay at ESA whenever im in town and always receive the best treatment from Nahid and Shania, they truly make the stay that much more comfortable. The rooms are always clean and if you need anything like pots pans plates, u dont even have to ask, they always ask you before you get the chance to ask them. The location is also great being next to a big gym, plenty of restaurants. Overall this is an awesome hotel and location with the best staff. There is currently a shortage of good customer service in all industries, but not here at this location, its quite the opposite.More</t>
   </si>
   <si>
+    <t>PeteM1A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r457672746-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Eileen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r448731401-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -678,6 +738,9 @@
     <t>I was a bit skeptical after reading some of the reviews, but this was a clean hotel. They do have hair dryers available at the front desk. The staff was pleasant and a joy  to deal with. The people next to our room were really loud, but I think they may have been tenants at the hotel. That was the only con about staying here, but if I will definitely come back if I'm ever in the area againMore</t>
   </si>
   <si>
+    <t>Karen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r439175551-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>This property is located right off Tampa/Londelius St. in Northridge, CA.  The hotel is in need of an update.  The lobby is small and worn out.  Check in time is 3:00 p.m. and not a minute sooner.  I arrived at 2:45 p.m. and was asked to take a seat because check in was at 3:00.  So, plan accordingly.  Once I was able get into my room, it was clean but very old and tired.  The furniture did not match, the recliner did not work and there was no hair dryer.  That being said, the room was very quiet.  I did not hear anything and was able to get right to sleep.  The mattress was very firm and the pillows were nice and soft.  The water pressure is very weak which made it difficult to get the shampoo out of my hair.  There was plenty of free parking available.  I did appreciate the safety feature of having to use my room card to get into the hotel lobby.  I arrived at about 9:15 pm and the doors were locked, I did really like that feature.  They do serve coffee, tea, muffins, oatmeal and breakfast bars.  This was nice to be able to grab something as I headed out.  I also learned this was a pet friendly hotel.  As I was walking down the hall to my room there was a chorus of dogs on the other side of many of the...This property is located right off Tampa/Londelius St. in Northridge, CA.  The hotel is in need of an update.  The lobby is small and worn out.  Check in time is 3:00 p.m. and not a minute sooner.  I arrived at 2:45 p.m. and was asked to take a seat because check in was at 3:00.  So, plan accordingly.  Once I was able get into my room, it was clean but very old and tired.  The furniture did not match, the recliner did not work and there was no hair dryer.  That being said, the room was very quiet.  I did not hear anything and was able to get right to sleep.  The mattress was very firm and the pillows were nice and soft.  The water pressure is very weak which made it difficult to get the shampoo out of my hair.  There was plenty of free parking available.  I did appreciate the safety feature of having to use my room card to get into the hotel lobby.  I arrived at about 9:15 pm and the doors were locked, I did really like that feature.  They do serve coffee, tea, muffins, oatmeal and breakfast bars.  This was nice to be able to grab something as I headed out.  I also learned this was a pet friendly hotel.  As I was walking down the hall to my room there was a chorus of dogs on the other side of many of the doors.  There are specific rules for the animals so be sure to check ahead of time so you are aware of them.More</t>
   </si>
   <si>
+    <t>labraski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r429302707-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -717,6 +783,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Jackie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r419822229-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -735,6 +804,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Sully94534</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r404993087-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -762,6 +834,9 @@
     <t>Sophia manager at the front desk was awesome.  The room was clean, bed a bit too firm for me.  The AC worked well. I did have to wait to check in, there seems to be too little staff to cover everything! Sophia is going to set me up with the sales team to secure a corporate account for my visiting colleagues!  Should be a great location for us!More</t>
   </si>
   <si>
+    <t>chumbud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r384021135-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Upon entering the front lobby of this establishment, we were greeted with a view of the industrial laundry machines whirring away with the bedsheets of the day. The place is like a barebones hotel, with little in the way of niceties. They do offer a small continental breakfast in the lobby, across from the whirring machines. You must take it to your room, as there are no tables or chairs - probably for the best since the machines make the ambience less than enjoyable. Personnel seemed new and lacking in knowledge, or just that "we can't" is their default setting. Trouble is, there isn't much in the way of accommodation in Northridge, despite a university close by. This place is very close to the university, one of it's few attributes.More</t>
   </si>
   <si>
+    <t>alexquinonez1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r378493138-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -798,6 +876,9 @@
     <t>Nice Hotel. Stayed twice. 2ND time we stayed we had to change  rooms because the room smelled like cigarettes.  But overall ok stay. We did set off smoke alarm while cooking dinner. Parking is well lit. Only concern is that there was no one in the front at times</t>
   </si>
   <si>
+    <t>Naplestravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r375173698-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -816,6 +897,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Joel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r355795489-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -831,6 +915,9 @@
     <t xml:space="preserve">Positives: location near a lot of restaurants, off street parkingNegatives: "free Hi-fi" only the slowest, pay daily for any faster service Towels small and very rough, if you need replacement have to go to the deskPay $10 a day for maid service but not reliable, some days not doneOnly queen size beds available No utensils or glasses in kitchen"Free breakfast" only coffee, small muffins in plastic, or small granola bars on a table in the lobby with no place to sitStaff always apologizing ( they have a lot to apologize for) </t>
   </si>
   <si>
+    <t>adibee1984</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r330945833-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -858,6 +945,9 @@
     <t>Booked the hotel through Hotwire as stated to be a 3.5 star hotel. Arrived at night around 11pm after a long and tiring day and wife was sick. Requested the guy at reception for an extra blanket. He asked to come back in 30 minutes as they were getting washed. After 30 minutes, came back and a different lady was there. She said there are no extra blankets. Argued and requested for about 15 minutes - at midnight completely tired and sleep-deprived. She finally said come back in an hour. Went back after an hour and was provided a blanket as if i have been done a huge favor. What kind of hotel does not have an extra blanket? If I have to wait and plead for a blanket 3 times post midnight after a very long day I will give the hotel 1 star (cheaper motels are better).Not to forget, next morning there was no hair dryer in the room. Called room service and they said they do not provide hair dryers.Seriously?? Then he said, there is one here in the lobby - come and pick it.Wow! Great customer service.More</t>
   </si>
   <si>
+    <t>scholl1991</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r325743443-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -874,6 +964,9 @@
   </si>
   <si>
     <t>October 2015</t>
+  </si>
+  <si>
+    <t>angelstr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r274479394-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
@@ -911,6 +1004,9 @@
 Staff- at check in the girl was disheveled, probably cause she was overwhelmed. At check out the clerk thought he was a comedian,  and gave my husband a lecture about the sugar content in the creamer, while my husband was attempting to inform him of some of the room issues. Instead of listening to my husband's...Towels- YEA! Plentiful replacement.  NAY! At least 300 grit sandpaper grade softness.Bathroom -YEA! Clean. NAY!  Exhaust Fan made a good awful noise, stuffed it with a wad of toilet paper and it was livable. Tub faucet dribbles, which is a sin in water stricken L.A.  Impossible to completely it turn off.Wifi- YEA! Free. NAY! Couldn't get our roku to connect.Bed- YEA! It was in the room. NAY! One side of the bed was padded. The other side of the bed was missing the padding. If one likes to sleep in a bed on metal. This is the bed for you. When we mentioned the bed to the desk clerk we were told it was within health code. So I went and looked up health code, sure enough only health code requirement is that it be clean and present, which it is. Sheets were clean, we think. The bottom sheet was upside down, impossible to tell if it was clean on the other side.  Didn't want to look. Ignorance is bliss. Blanket had burn holes. And was as soft as the towels.Staff- at check in the girl was disheveled, probably cause she was overwhelmed. At check out the clerk thought he was a comedian,  and gave my husband a lecture about the sugar content in the creamer, while my husband was attempting to inform him of some of the room issues. Instead of listening to my husband's information, he was still going on about the sugar content in the creamer supplied by the hotel. When I asked him to write down the manager's name, he thought he again was being clever with me and made some comment about writing the name down that was somewhat derogatory. Then when I reinterated the issues with the bed, he told me it was within health code. My thought health code is one thing, thinking of guest comfort is another. The next people in this room will suffer the same issues and from what I gather, will hear the same answer... It's within health code. The underlying response is "we are making money and we don't care if we see you again!" Good luck if this is your destination.More</t>
   </si>
   <si>
+    <t>Ellen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r271844046-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -938,6 +1034,9 @@
     <t>This property is in a good location. Easy freeway access, restaurants and a shopping mall. I stay at this location once a week and have been for a couple of years. The staff is always friendly.  The rooms are clean and the beds are very comfortableMore</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r259802836-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -965,6 +1064,9 @@
     <t>I was with work for the Costco location which couldn't have been any better (across the street on Tampa).  This area of the Valley (Northridge/Chatsworth) has few decent hotels in the 3-4 star range, and those that are there are OVER PRICED.  This hotel was a happy find based on quality and price point.  It is clean, basic accommodation with ample parking and super convenient.  This Extended Stay is like all others:  cheaply and poorly built construction will most likely assure you'll hear a lot of other noise, and other people staying in the hotel.  A room with only a couple of people can sound like a party here.More</t>
   </si>
   <si>
+    <t>M J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r246664603-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -992,6 +1094,9 @@
     <t>Good thing:dog friendly so met lovely dogs &amp; owners - no good if you not like. Clean &amp; night lady excellent. Good location as shops nearby-that's it....very noisy as have overseas students staying all year so avoid top floor. Non-smoking room smelled of smoke lady told me previous guest rejected room for that. Staff sprayed the room with freshener but that not work! Basic toiletries (bathroom) &amp; utensils (kitchen) People coming &amp; going all hours of night &amp; through side door by bedroom so door constantly banging. Anyone could get in (as could tell guests staying too even if not)&amp; through front as not always manned so safely issues especially for lone traveller. Breakfast basic, muffins poor quality &amp; not much on offer. Asked to speak with manager each day but constant excuses he not around &amp; no one else can make a decision. I left day earlier &amp; head office reimbursed me as an apology for so many problems. Returning next year to US but have found alternative accommodation.More</t>
   </si>
   <si>
+    <t>Tokki01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r243541733-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1016,6 +1121,9 @@
     <t>I loved the great service I received from check in to check out. Nahid, an employee at the front desk was especially friendly and helpful. He always went above and beyond to fulfill my requests. I hope management acknowledges his hardwork because great customer service is hard to find. More</t>
   </si>
   <si>
+    <t>Kr R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r237566612-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1040,6 +1148,9 @@
     <t>I travel weekly for work and stay at many low to moderate priced hotels. This was one of the nicest extended stays i have seen. The rooms were clean and smelled new. It felt safe. I would hv given it a 5 but the parking lot was fikled with people smoking and the front area wasbfilled with bikes. Maybe they rent them but alas they clutted the front and got in the way.Also the free "breakfast" is really apples and granola bars. I will be staying the again! More</t>
   </si>
   <si>
+    <t>prettybrnrye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r208932548-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1064,6 +1175,9 @@
     <t>I was really nit pleased with thus place. We stayed here dot my nephews graduation and he was graduating from csu Northridge. When we arrived there we got there at a about 2:00 p.m.  and we were told the rooms were not ready and had to wait until 3:00 and the rooms will be ready. We went and got a lil bit to eat and came back to the hotel to find out that my auntie needed my I.d. to get the room. So I gave it to her then the man is telling my auntie and u quote oh can I get back your  credit card so if you guys decide to wanna steal a t.v. we can charge your credit card. I then tell him we don't want your tv or anything else I have numerous tv's in my house do  not need your small.a## flat screen. Then they say they.give u.a continental breakfast in the morning and it was nothing but breakfast bars. So on Sunday was when we were leaving and I set my alarm to wake up @ 4:30 a.m and I end up waking up to alarms going off in the hotel. It wakes up everybody in the hotel and we all are jumping up to get out. Come to find out they say somebody was cooking food @ 3:00a.m and open the door and let smoke out. Now i am up at three...I was really nit pleased with thus place. We stayed here dot my nephews graduation and he was graduating from csu Northridge. When we arrived there we got there at a about 2:00 p.m.  and we were told the rooms were not ready and had to wait until 3:00 and the rooms will be ready. We went and got a lil bit to eat and came back to the hotel to find out that my auntie needed my I.d. to get the room. So I gave it to her then the man is telling my auntie and u quote oh can I get back your  credit card so if you guys decide to wanna steal a t.v. we can charge your credit card. I then tell him we don't want your tv or anything else I have numerous tv's in my house do  not need your small.a## flat screen. Then they say they.give u.a continental breakfast in the morning and it was nothing but breakfast bars. So on Sunday was when we were leaving and I set my alarm to wake up @ 4:30 a.m and I end up waking up to alarms going off in the hotel. It wakes up everybody in the hotel and we all are jumping up to get out. Come to find out they say somebody was cooking food @ 3:00a.m and open the door and let smoke out. Now i am up at three o'clock and cant go back to sleep b cuz we had to be up at four thirty in the morning. I will never ever stay at this place again for what we paid we should if had better serviceMore</t>
   </si>
   <si>
+    <t>sfsu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r208196245-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1088,6 +1202,9 @@
     <t>Room has it's own kitchen so we can cook ans save a little to eatout while we were staying. Great location and there are many restaurant located nearby and shopping is very close. Also it is not too far from freeway to Universal Studios and Hollywood.More</t>
   </si>
   <si>
+    <t>shady-abedin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r202553602-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1115,6 +1232,9 @@
     <t>everything was great , good location nice big clean room rode housekeeping staff ( one girl ) we was going to use the elevator but she had say you have to wait i will use it .grab breakfast is not that goodMore</t>
   </si>
   <si>
+    <t>PABNewRichland_MN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r197098517-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1142,6 +1262,9 @@
     <t>We stayed 5 nights while we were visiting our daughter. The staff was very accommodating. Remember, it is an extended stay not luxury hotel. Anything we needed we asked the staff. They were helpful for necessities we forgot or didn't bring (ask for hair dryers, extra hangers). The hotel is located within walking distance of a convenience store, food market, Big Lots and Dollar store for items you may need. There are lots of eating establishments all around and a large shopping mall with a theater and nice eating places about 4 blocks away (long blocks, but doable). The staff was helpful when we need to have tickets printed off for boarding pass and the Getty Villa. Beds were comfortable. Down side, no patio or area outside with benches or chairs and not much of a lobby. We were busy sightseeing during the day.More</t>
   </si>
   <si>
+    <t>dougontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r194750931-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1169,6 +1292,9 @@
     <t>Had to stay somewhere local due to home renos. This place was near by.You need to ask for everything. towels, face cloths, dish towel, soap, shampoo etc.The rooms are the bare minimum.Beds are less than comfortable, sheets are cheap.Bath towels are lower quality than what I get the YMCA for a workout.No daily cleaning service.Staff are conditionally friendly - it all depends on what you need."Breakfast" - stop at the coffee - that's pretty good, the rest is better left alone.After 2 nights I went searching for an alternative.I found the Hilton in Woodland Hills for about $30 LESS per night.This is a destination of last resort.More</t>
   </si>
   <si>
+    <t>Adriana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r194061486-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1193,6 +1319,9 @@
     <t>We paid around $90 for a king smoking room (by accident.)  Room was clean, had a bed, stove fridge, tv, and iron. Air/Heat worked well in the room.  Nothing really above average about the hotel, except for maybe the service, everyone was very friendly.Good area next to restaurants and mall.More</t>
   </si>
   <si>
+    <t>RowanQuilty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r190797190-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1218,6 +1347,9 @@
   </si>
   <si>
     <t>We're a young couple from England, staying in Northridge from September to December 2013 due to work and family commitments. Before we arrived at Extended Stay America we were apprehensive, largely due to some of the reviews on here. However we couldn't have been happier. Firstly the rooms were spacious and clean, the maid services the room based on how many nights you're staying, if you need towels or sheets, the front desk always had plenty when we asked. The rooms also had all the kitchen equipment that you would need, as well as an iron and ironing board.We were actually on the smoking floor, but in a non-smoking room, my girlfriend's very sensitive to smoke, but we never had any problem, the hallways were always clean and fresh.  The huge asset that they have here is the staff, all of the people who worked on the desk made our stay as pleasant as possible, they were friendly and personable, offering help, which for us being from the UK was excellent. The staff who serviced the room were also very pleasant and professional. Both myself, and my girlfriend would stay at Extended Stay America again if we were in the country for a prolonged period. Thanks again to the staff, and sorry it's taken us a while to write a review. More</t>
+  </si>
+  <si>
+    <t>cusip</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r190778779-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
@@ -1255,6 +1387,9 @@
 In addition...This was our first and last stay at ESA.Stayed only for one night.  We arrived around noon and asked for an early check in if possible the clerk did not even bother looking on the computer and immediately said there's no room available.  Yeah right, the parking lot is not even full.  Anyway came back and asked to use the restroom and was told no restroom available.  I can't believe it even a gas station offers restroom but the front desk was adamant they don't offer restroom only the guestroom has restroom.  Well I explained I can't check in until 3pm but he just shrugged. oh my he is not very friendly at all.After running around came back at 7:40pm and checked in with Jonathan who seems to be the opposite of the unfriendly front desk earlier in the day.The room is nice and spacious, however I am disappointed that the linens are not fresh.  Looks used to me, the good thing is I always carry my own pillows and sheets sort of paranoid.  so because of that I did not get to sleep comfortably. Location is perfect - it is within walking distance to all the restaurants and fast food chains nearby.Breakfast - they provide "good" coffee - oatmeal bars, oranges and apples.  nothing fancy.I've heard complains about water not hot, our room is at 403 and did not have that problem.In addition the thermostat control was not working and it would take a day to get maintenance since were checking out the next day there's no point.ESA is mainly for weekly or monthly rentals since they offer small kitchenettes but not really a hotel facility.  Don't think I am coming back.More</t>
   </si>
   <si>
+    <t>j g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r188159973-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1282,6 +1417,9 @@
     <t>I unfortunately stayed at this facility for 8 weeks while working night shift nearby. The facility was loud, the staff unfriendly, and my stay unpleasant.Do not disturb signs were ignored, showers sometimes cold (they have been "working to correct this" for MONTHS), and towels were hard to come by. Housekeeping comes once a week for long staying customers and in my case only vacuumed on the third visit.  My non smoking floor often reeked of cigarettes.  Pet friendly includes dogs barking during the day and poop by the entrances.  The small kitchens allow guests to prepare meals so be ready for cooking smells both pleasant and not so pleasant.  They have Culligan filters on the kitchen faucets however mine leaked more out the sides than came out the spout.The "Breakfast" was sparse.The dedicated parking space marked for Law Enforcement by the entrance was not reassuring.Can not recommend. Would refuse to return.More</t>
   </si>
   <si>
+    <t>jarrodd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r181824636-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1309,6 +1447,9 @@
     <t>This "hotel" is one of the worst I've ever stayed in. They don't provide shampoo, Kleenex or bath soap. Room had no toilet paper. They do however provide complimentary dish soap?!? Very strange. Thin walls and barely hot water on the 2nd floor. I'd heard good things about Extended Stays ... I sure hope they all aren't like this one.More</t>
   </si>
   <si>
+    <t>M P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r173366223-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1327,6 +1468,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Sandy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r170715815-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1357,6 +1501,9 @@
     <t>The last time I stayed at this hotel it was a dump, but I stayed there anyway because of the location near the friend I was visiting.  The remodel makes it much nicer, and this stay was great.  The hot water in my bathroom didn't work when I arrived but was fixed very quickly.  The staff could not have been nicer.  Since it had just been remodeled there was still a bit of a paint smell (to me) but that will pass.  The room was not cleaned during my stay but I believe that's normal for a stay of my length (6 days.)  Overall, a pleasant experience and I'll likely be back.More</t>
   </si>
   <si>
+    <t>luseaotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r169368421-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1375,6 +1522,9 @@
     <t>We stayed at this hotel recently, and I have to say that Benita is probably the most professional, warm and polite manager/front desk person I have ever encountered in an hotel stay.  Before we arrived, I called and asked about a concern I had about staying in extended stay-type lodging and Benita was polite, informative, plus very giving of her time.  I never felt rushed on the phone.  Because of her, we decided to visit the hotel for a look-see.  Benita was available and very patient with all of my questions. She showed us a typical room and assured me it would be ready that afternoon.  Again, because of Benita, we decided to try the hotel and were not disappointed (for a number of reasons).  We checked in and were delighted to find that she had given us a corner room (which helped with my concerns).  It was great--but not as great as Benita.  Kudos to Extended Stay for hiring such a wonderful manager!More</t>
   </si>
   <si>
+    <t>tmoore4000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r167686760-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1393,6 +1543,9 @@
     <t>Checked in late, lady at the front desk was as tired as I was so it was very short and sweet which I appreciated.  Room was clean and fully stocked with plates, cups and had a water filter attached to the faucet so I could finally drink LA tap water.  Room felt brand new and had "wood" floors in the kitchen/bath area.  Nice new tv and cold AC.  Bed is a little stiff but over all a good nights sleep.  I agree that the price at check in is different that the price quoted on line but the small print says it doesn't include taxes.  I'm guessing that is where the extra cost comes from.More</t>
   </si>
   <si>
+    <t>Sobati</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r166980789-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1409,6 +1562,9 @@
   </si>
   <si>
     <t>I am not happy with this hotel that i am staying at feeling being ripped off.  next time i will make sure to go to Hilton or Marriots hotel for the price I got charge for.  I check in for $99 for a weekly rate.  The time I check for daily rate was $114. I call and spoke with the agent they told me I can check out anytimeIf before one week my rate will be $114.  When I ask to check out they charge me $156 a dayAnd I try to ask for help the counter person just ignored meAnd just handed me the paperto sign and he make a statement to my friend  about me, Does she speak English ?How rude!!!More</t>
+  </si>
+  <si>
+    <t>Jim S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r156702303-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
@@ -1460,6 +1616,9 @@
 - Breakfast? by 7:30am was nothing left but a...Overall, this is a very good hotel and I did get a good nights sleep. That's most important.  But this is also not a normal hotel, it truly is designed for extended stays. So some of the amenities that you would find at a regular hotel you will not find here:Pros: - Very clean room. - Very nice staff.- Very quite room.- Very comfy bed.- Good nights sleep.These are also the most important things for me.Cons:- Busy train tracks near by. There are train tracks very close by which at first I thought was going to be a big problem sleep but because of the double, double pain windows(yes, two sets of double pain windows), the train became just a whisper when the windows were shut.- Wifi? Free is only worth it if you are going to check email. Paid for (I upgraded for $3 and what a nightmare in itself to upgrade) is only worth it if you are going to check email. I tried to watch a movie from Amazon prime, but it paused so many times to catch up that I finally gave up. Went to Youtube and same thing. Their TV has no movies as it has just basic cable so I ended up just watching the Discovery Channel.- No Pool- No Spa- No exercise room- Breakfast? by 7:30am was nothing left but a couple of apples and a granola bar. Oh, but there was coffee. plenty of good coffee. - No amenities. no shampoo, no lotion. There was a bar of soap though.These were all ancillary things so I did not downgrade the hotel because of them. I just did not understand what an Extended Stay hotel was. This is just more FYI for the next guy.More</t>
   </si>
   <si>
+    <t>l w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r155663318-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1485,6 +1644,9 @@
   </si>
   <si>
     <t>good for the money I paid. my kids love the breakfast .  the staff was friendly and help with all our needs.  there were good restruants near by .  Gen always had a smile and was ery willing to help in any way.  although the room was a smoking room it did not smell like smoke.More</t>
+  </si>
+  <si>
+    <t>nicki b</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r152471168-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
@@ -1516,6 +1678,9 @@
 Let me just say,the staff here is phe-no-me-nal and managed to turn around our impression from the get go!!!The girl at the desk was so efficient &amp; super understanding of our situation and showed us a double room in a quiet corner that we immediately felt at ease and checked in.The room was like a mini apartment with all the features that a studio has so we felt totally at home.They are ALL so friendly at the reception and gave us everything we needed to be comfortable including popcorn and hot chocolate!The hotel did not have a pool or gym which was a downer for us but they are so close to many restaurants and a major shopping mall so we had plenty to do during our short week there.They had a continental kind of breakfast ,we never made it in time as its only till 9.30am but they would still give us coffee &amp;...So.....it was me and my cousin's 1st time in the land of angels and before visiting all the usual touristy spots we had to go pay a visit to our extended family in Porter Ranch but unfortunately because of an emergency situation at their house ,they put us up at this never-heard-of before hotel chain.We were quite iffy about it at first and wanted to check out the location and room before checking in esp since there is a police parking spot right up front.Let me just say,the staff here is phe-no-me-nal and managed to turn around our impression from the get go!!!The girl at the desk was so efficient &amp; super understanding of our situation and showed us a double room in a quiet corner that we immediately felt at ease and checked in.The room was like a mini apartment with all the features that a studio has so we felt totally at home.They are ALL so friendly at the reception and gave us everything we needed to be comfortable including popcorn and hot chocolate!The hotel did not have a pool or gym which was a downer for us but they are so close to many restaurants and a major shopping mall so we had plenty to do during our short week there.They had a continental kind of breakfast ,we never made it in time as its only till 9.30am but they would still give us coffee &amp; fruit most of the time,such great service ! We will definitely recommend this awesome hotel to anyone needing a more than just a hotel room type of place that is safe and clean and very home-y.More</t>
   </si>
   <si>
+    <t>jmarks75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r147768103-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1540,6 +1705,9 @@
     <t>The Extended Stay in Northridge is a well maintained hotel. The rooms are nice and clean, comfortable too. The staff is friend and helpful. The coffee is pretty good. Overall, a great place to stay, whether it's for a night or two or longer. More</t>
   </si>
   <si>
+    <t>Cc Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r147671172-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1558,6 +1726,9 @@
     <t>I'd have to say I'm admired by the staff at this location!!! The Mgr is Ashe. Nahid, Jesus, Gen, &amp; Perrin have all been very hospitable during my numerous stays at this hotel. Everyone should be very commendable in their manner and approach; felt like home! This hotel is clean and has a comfortable environment. The rooms are equipped to be very private in that Ive never had complaints about noise! I felt at home when i stayed here and I definitely will be returning! I would 100% recommend this hotel to anyone!More</t>
   </si>
   <si>
+    <t>Dwaine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r147625952-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1579,6 +1750,9 @@
     <t>I aqm staying at Extended Stay because I am between apts. I stayed Hear last year for a while and had a very good experience with the whole staff, the room was clean, service was very good, so I came back and I have not been disapointed so far with my stay this time, the staff has been very hepfull and curtious, I have and will recomend friends and people about this place.More</t>
   </si>
   <si>
+    <t>RSS466</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r140018337-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1606,6 +1780,9 @@
     <t>i and my husband stayed at this hotel last year and i really loved it, so we decided to come back and stay here this year also. i love the area, i love the surroundings and the location where the hotel is. most of all i love the friendly and helpful staff, they have become like a part of my family. they are always there to accommodate us in anything we want.  i would highly recommend this hotel for anyone who is looking for a temporary place  to stay.  it has a all the amenities, with free wi-fi and free parking.this is our home away from home and i love it, i would never go and stay anywhere else.More</t>
   </si>
   <si>
+    <t>QiyawnaP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r137225902-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1631,6 +1808,9 @@
   </si>
   <si>
     <t>I have been residing at Extended Stay Northridge for over 2 years.  I love the staff, Ashe, Annjannett, Nahid, and Gen, are all so very nice.  The hotel is kept very nice and clean and Housekeeping Staff is very courteous and helpful.  The staff, especially Ashe, is very accommodating, understanding and easy to communicate with and very good at problem solving.  Because this has been my home for the past 2 1/2 years, I have always felt comfortable and safe.  Any and all complaints are immediately addressed and the entire staff's aim is to make sure their clients are satisfied.  I would definitely recommend ESAN as it is strategically and conviently located and a great place to stay.More</t>
+  </si>
+  <si>
+    <t>mjtraveler22</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r132285817-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
@@ -1664,6 +1844,9 @@
 My non-smoking room had an ashtray and reeked of smoke.  I called the front desk, and the clerk offered to come take the ashtray away.  Like that would help.  I declined.  No offer to change my room.  There is no non-smoking wing, and there was so much smoke in the hallway, I knew it was fruitless to complain.  I tried stuffing a towel in front of the door, but smoke came in thru the bathroom ventilation. We didnt have time to change hotels the next AM, so i resigned myself to burning eyes for 2 nights.  The clerk did give me a can of deodorizer, but it didn't work.  The carpet was so dirty, we decided not to sit on it...For the first time, I feel completely mislead by the TripAdvisor reviews.  Because of the favorable reviews, I picked Extended Stay America in Northridge and had one of the worst hotel rooms I've experienced in the last 10 years.  In summary: tons of smoke, no hair dryers, no luggage rack, fake breakfast, no closet, dirty carpet, no maid service (only done once per week), no fitness center, no pool in hot hot San Fernando Valley, and the "free wifi" was only 0.7Mbps.I knew I was in trouble when I drove up and saw that a parking space in front was reserved for the police.  When I asked why that was necessary, the clerk said ALL hotels have that.  My non-smoking room had an ashtray and reeked of smoke.  I called the front desk, and the clerk offered to come take the ashtray away.  Like that would help.  I declined.  No offer to change my room.  There is no non-smoking wing, and there was so much smoke in the hallway, I knew it was fruitless to complain.  I tried stuffing a towel in front of the door, but smoke came in thru the bathroom ventilation. We didnt have time to change hotels the next AM, so i resigned myself to burning eyes for 2 nights.  The clerk did give me a can of deodorizer, but it didn't work.  The carpet was so dirty, we decided not to sit on it or the couch.  The kitchen and bathroom floor were covered with cigarette burns.The wifi was too slow to use for anything but email.  You can get 3Mbps if you are willing to pay $3 per day.The next morning, I took a shower and then looked for the hair dryer.  Called the front desk.  "We don't provide hair dryers.  As a courtesy, we keep 2 at the front desk, but they're both in use.  I'll call you when one is returned.". AARRGHH!  Breakfast was another joke.  There is a tiny table in the lobby with coffee, hot water, instant oatmeal, tiny apples and oranges, and nutrigrain bars.  At ~$100 per night, you're better off with any best western or Marriott.  This hotel is no bargain.BTW, I looked at those earlier positive reviews.  Most of them were submitted by people who had never posted a review before.  More</t>
   </si>
   <si>
+    <t>jake j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r128624986-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1683,6 +1866,9 @@
   </si>
   <si>
     <t>Manager non responsive to my complaints, property smells of Marijuana &amp; they double billed me on several days. I would never stay at this place again.More</t>
+  </si>
+  <si>
+    <t>Marissa L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d570515-r127129209-Extended_Stay_America_Los_Angeles_Northridge-Los_Angeles_California.html</t>
@@ -2211,43 +2397,47 @@
       <c r="A2" t="n">
         <v>53597</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2259,56 +2449,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53597</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2326,56 +2520,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53597</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146373</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2397,47 +2595,51 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53597</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -2454,56 +2656,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53597</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2525,56 +2731,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53597</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2596,56 +2806,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53597</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146376</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2667,56 +2881,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53597</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2738,56 +2956,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53597</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2799,56 +3021,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53597</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146379</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2870,56 +3096,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53597</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146380</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2937,56 +3167,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53597</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2998,56 +3232,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53597</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146382</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3069,56 +3307,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53597</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146383</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3140,56 +3382,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53597</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>10306</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3205,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>53597</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146384</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3272,56 +3522,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>53597</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146385</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3333,56 +3587,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>53597</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146386</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3398,56 +3656,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>53597</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146387</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3461,50 +3723,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>53597</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>13323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3516,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>53597</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>22683</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3583,50 +3853,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>53597</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146388</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3644,50 +3918,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>53597</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>24239</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3705,50 +3983,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>53597</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146389</v>
+      </c>
+      <c r="C25" t="s">
+        <v>262</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3760,56 +4042,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>53597</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146390</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3829,50 +4115,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>53597</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146391</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3892,50 +4182,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>53597</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146392</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3955,50 +4249,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>53597</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>35477</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4012,50 +4310,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>53597</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -4071,56 +4373,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>53597</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4140,50 +4446,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>53597</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146395</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4201,56 +4511,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>53597</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>9584</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4268,56 +4582,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="X33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>53597</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146396</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4335,56 +4653,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>53597</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>73945</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4402,47 +4724,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>53597</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146397</v>
+      </c>
+      <c r="C36" t="s">
+        <v>356</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4469,47 +4795,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>53597</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>122366</v>
+      </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -4536,47 +4866,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>53597</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -4603,47 +4937,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="X38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>53597</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146399</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4670,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="X39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>53597</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>392</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4741,56 +5083,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>53597</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146401</v>
+      </c>
+      <c r="C41" t="s">
+        <v>402</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4812,56 +5158,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>53597</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146402</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4883,56 +5233,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="X42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="Y42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>53597</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>17823</v>
+      </c>
+      <c r="C43" t="s">
+        <v>422</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="J43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="O43" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4954,56 +5308,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="X43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="Y43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>53597</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146403</v>
+      </c>
+      <c r="C44" t="s">
+        <v>431</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="K44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5015,56 +5373,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="X44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>53597</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146404</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="O45" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5086,56 +5448,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="X45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>53597</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7539</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5157,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>53597</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146405</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5228,56 +5598,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="X47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="Y47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>53597</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>53674</v>
+      </c>
+      <c r="C48" t="s">
+        <v>469</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="J48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="L48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="O48" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5301,50 +5675,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>53597</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>13798</v>
+      </c>
+      <c r="C49" t="s">
+        <v>476</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="J49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="K49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="L49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="O49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5366,56 +5744,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="X49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="Y49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>53597</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146406</v>
+      </c>
+      <c r="C50" t="s">
+        <v>487</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="J50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="K50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="L50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5439,50 +5821,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>53597</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146407</v>
+      </c>
+      <c r="C51" t="s">
+        <v>494</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5506,41 +5892,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>53597</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146408</v>
+      </c>
+      <c r="C52" t="s">
+        <v>501</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="J52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="K52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="L52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -5569,50 +5959,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>53597</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C53" t="s">
+        <v>508</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="J53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5636,50 +6030,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53597</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146409</v>
+      </c>
+      <c r="C54" t="s">
+        <v>516</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="O54" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5701,56 +6099,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="X54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="Y54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>53597</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146410</v>
+      </c>
+      <c r="C55" t="s">
+        <v>526</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="J55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="K55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="L55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="O55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5772,47 +6174,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="X55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="Y55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>53597</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146411</v>
+      </c>
+      <c r="C56" t="s">
+        <v>536</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="J56" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K56" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="L56" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -5839,47 +6245,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="X56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="Y56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>53597</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146412</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="K57" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="L57" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5906,56 +6316,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="X57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="Y57" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>53597</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146413</v>
+      </c>
+      <c r="C58" t="s">
+        <v>552</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="J58" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="K58" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="L58" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="O58" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5977,56 +6391,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="X58" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="Y58" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>53597</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146414</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="J59" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="K59" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="L59" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="O59" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6048,56 +6466,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="X59" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="Y59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>53597</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146415</v>
+      </c>
+      <c r="C60" t="s">
+        <v>570</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="J60" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="K60" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="L60" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="O60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6119,56 +6541,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="X60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="Y60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>53597</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146416</v>
+      </c>
+      <c r="C61" t="s">
+        <v>580</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="J61" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="K61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="L61" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="O61" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6180,56 +6606,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="X61" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="Y61" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>53597</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>52403</v>
+      </c>
+      <c r="C62" t="s">
+        <v>590</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="J62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="K62" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="L62" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6251,56 +6681,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="X62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="Y62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>53597</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>73199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>598</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="K63" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6322,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="X63" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="Y63" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_260.xlsx
@@ -2398,7 +2398,7 @@
         <v>53597</v>
       </c>
       <c r="B2" t="n">
-        <v>146371</v>
+        <v>177706</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2463,7 +2463,7 @@
         <v>53597</v>
       </c>
       <c r="B3" t="n">
-        <v>146372</v>
+        <v>177707</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2534,7 +2534,7 @@
         <v>53597</v>
       </c>
       <c r="B4" t="n">
-        <v>146373</v>
+        <v>177708</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2670,7 +2670,7 @@
         <v>53597</v>
       </c>
       <c r="B6" t="n">
-        <v>146374</v>
+        <v>177709</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -2745,7 +2745,7 @@
         <v>53597</v>
       </c>
       <c r="B7" t="n">
-        <v>146375</v>
+        <v>177710</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -2820,7 +2820,7 @@
         <v>53597</v>
       </c>
       <c r="B8" t="n">
-        <v>146376</v>
+        <v>177711</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -2895,7 +2895,7 @@
         <v>53597</v>
       </c>
       <c r="B9" t="n">
-        <v>146377</v>
+        <v>177712</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -2970,7 +2970,7 @@
         <v>53597</v>
       </c>
       <c r="B10" t="n">
-        <v>146378</v>
+        <v>177713</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -3035,7 +3035,7 @@
         <v>53597</v>
       </c>
       <c r="B11" t="n">
-        <v>146379</v>
+        <v>177714</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -3110,7 +3110,7 @@
         <v>53597</v>
       </c>
       <c r="B12" t="n">
-        <v>146380</v>
+        <v>177715</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -3181,7 +3181,7 @@
         <v>53597</v>
       </c>
       <c r="B13" t="n">
-        <v>146381</v>
+        <v>177716</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -3246,7 +3246,7 @@
         <v>53597</v>
       </c>
       <c r="B14" t="n">
-        <v>146382</v>
+        <v>177717</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -3321,7 +3321,7 @@
         <v>53597</v>
       </c>
       <c r="B15" t="n">
-        <v>146383</v>
+        <v>177718</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
@@ -3465,7 +3465,7 @@
         <v>53597</v>
       </c>
       <c r="B17" t="n">
-        <v>146384</v>
+        <v>177719</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -3536,7 +3536,7 @@
         <v>53597</v>
       </c>
       <c r="B18" t="n">
-        <v>146385</v>
+        <v>177720</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -3601,7 +3601,7 @@
         <v>53597</v>
       </c>
       <c r="B19" t="n">
-        <v>146386</v>
+        <v>177721</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -3670,7 +3670,7 @@
         <v>53597</v>
       </c>
       <c r="B20" t="n">
-        <v>146387</v>
+        <v>177722</v>
       </c>
       <c r="C20" t="s">
         <v>223</v>
@@ -3861,7 +3861,7 @@
         <v>53597</v>
       </c>
       <c r="B23" t="n">
-        <v>146388</v>
+        <v>177723</v>
       </c>
       <c r="C23" t="s">
         <v>248</v>
@@ -3991,7 +3991,7 @@
         <v>53597</v>
       </c>
       <c r="B25" t="n">
-        <v>146389</v>
+        <v>177724</v>
       </c>
       <c r="C25" t="s">
         <v>262</v>
@@ -4056,7 +4056,7 @@
         <v>53597</v>
       </c>
       <c r="B26" t="n">
-        <v>146390</v>
+        <v>177725</v>
       </c>
       <c r="C26" t="s">
         <v>272</v>
@@ -4123,7 +4123,7 @@
         <v>53597</v>
       </c>
       <c r="B27" t="n">
-        <v>146391</v>
+        <v>177726</v>
       </c>
       <c r="C27" t="s">
         <v>280</v>
@@ -4190,7 +4190,7 @@
         <v>53597</v>
       </c>
       <c r="B28" t="n">
-        <v>146392</v>
+        <v>177727</v>
       </c>
       <c r="C28" t="s">
         <v>286</v>
@@ -4318,7 +4318,7 @@
         <v>53597</v>
       </c>
       <c r="B30" t="n">
-        <v>146393</v>
+        <v>177728</v>
       </c>
       <c r="C30" t="s">
         <v>299</v>
@@ -4387,7 +4387,7 @@
         <v>53597</v>
       </c>
       <c r="B31" t="n">
-        <v>146394</v>
+        <v>177729</v>
       </c>
       <c r="C31" t="s">
         <v>309</v>
@@ -4454,7 +4454,7 @@
         <v>53597</v>
       </c>
       <c r="B32" t="n">
-        <v>146395</v>
+        <v>177730</v>
       </c>
       <c r="C32" t="s">
         <v>316</v>
@@ -4596,7 +4596,7 @@
         <v>53597</v>
       </c>
       <c r="B34" t="n">
-        <v>146396</v>
+        <v>148524</v>
       </c>
       <c r="C34" t="s">
         <v>336</v>
@@ -4738,7 +4738,7 @@
         <v>53597</v>
       </c>
       <c r="B36" t="n">
-        <v>146397</v>
+        <v>177731</v>
       </c>
       <c r="C36" t="s">
         <v>356</v>
@@ -4880,7 +4880,7 @@
         <v>53597</v>
       </c>
       <c r="B38" t="n">
-        <v>146398</v>
+        <v>177732</v>
       </c>
       <c r="C38" t="s">
         <v>374</v>
@@ -4951,7 +4951,7 @@
         <v>53597</v>
       </c>
       <c r="B39" t="n">
-        <v>146399</v>
+        <v>177733</v>
       </c>
       <c r="C39" t="s">
         <v>383</v>
@@ -5022,7 +5022,7 @@
         <v>53597</v>
       </c>
       <c r="B40" t="n">
-        <v>146400</v>
+        <v>177734</v>
       </c>
       <c r="C40" t="s">
         <v>392</v>
@@ -5097,7 +5097,7 @@
         <v>53597</v>
       </c>
       <c r="B41" t="n">
-        <v>146401</v>
+        <v>177735</v>
       </c>
       <c r="C41" t="s">
         <v>402</v>
@@ -5172,7 +5172,7 @@
         <v>53597</v>
       </c>
       <c r="B42" t="n">
-        <v>146402</v>
+        <v>177736</v>
       </c>
       <c r="C42" t="s">
         <v>412</v>
@@ -5322,7 +5322,7 @@
         <v>53597</v>
       </c>
       <c r="B44" t="n">
-        <v>146403</v>
+        <v>177737</v>
       </c>
       <c r="C44" t="s">
         <v>431</v>
@@ -5387,7 +5387,7 @@
         <v>53597</v>
       </c>
       <c r="B45" t="n">
-        <v>146404</v>
+        <v>177738</v>
       </c>
       <c r="C45" t="s">
         <v>441</v>
@@ -5537,7 +5537,7 @@
         <v>53597</v>
       </c>
       <c r="B47" t="n">
-        <v>146405</v>
+        <v>177739</v>
       </c>
       <c r="C47" t="s">
         <v>459</v>
@@ -5758,7 +5758,7 @@
         <v>53597</v>
       </c>
       <c r="B50" t="n">
-        <v>146406</v>
+        <v>177740</v>
       </c>
       <c r="C50" t="s">
         <v>487</v>
@@ -5829,7 +5829,7 @@
         <v>53597</v>
       </c>
       <c r="B51" t="n">
-        <v>146407</v>
+        <v>177741</v>
       </c>
       <c r="C51" t="s">
         <v>494</v>
@@ -5900,7 +5900,7 @@
         <v>53597</v>
       </c>
       <c r="B52" t="n">
-        <v>146408</v>
+        <v>177742</v>
       </c>
       <c r="C52" t="s">
         <v>501</v>
@@ -6038,7 +6038,7 @@
         <v>53597</v>
       </c>
       <c r="B54" t="n">
-        <v>146409</v>
+        <v>177743</v>
       </c>
       <c r="C54" t="s">
         <v>516</v>
@@ -6113,7 +6113,7 @@
         <v>53597</v>
       </c>
       <c r="B55" t="n">
-        <v>146410</v>
+        <v>177744</v>
       </c>
       <c r="C55" t="s">
         <v>526</v>
@@ -6188,7 +6188,7 @@
         <v>53597</v>
       </c>
       <c r="B56" t="n">
-        <v>146411</v>
+        <v>177745</v>
       </c>
       <c r="C56" t="s">
         <v>536</v>
@@ -6259,7 +6259,7 @@
         <v>53597</v>
       </c>
       <c r="B57" t="n">
-        <v>146412</v>
+        <v>177746</v>
       </c>
       <c r="C57" t="s">
         <v>545</v>
@@ -6330,7 +6330,7 @@
         <v>53597</v>
       </c>
       <c r="B58" t="n">
-        <v>146413</v>
+        <v>177747</v>
       </c>
       <c r="C58" t="s">
         <v>552</v>
@@ -6405,7 +6405,7 @@
         <v>53597</v>
       </c>
       <c r="B59" t="n">
-        <v>146414</v>
+        <v>177748</v>
       </c>
       <c r="C59" t="s">
         <v>560</v>
@@ -6480,7 +6480,7 @@
         <v>53597</v>
       </c>
       <c r="B60" t="n">
-        <v>146415</v>
+        <v>177749</v>
       </c>
       <c r="C60" t="s">
         <v>570</v>
@@ -6555,7 +6555,7 @@
         <v>53597</v>
       </c>
       <c r="B61" t="n">
-        <v>146416</v>
+        <v>177750</v>
       </c>
       <c r="C61" t="s">
         <v>580</v>
